--- a/output/pronostico.xlsx
+++ b/output/pronostico.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B121"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,13 +452,29 @@
           <t>Pronóstico</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Inferior 95</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Superior 95</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>45047</v>
       </c>
       <c r="B2" t="n">
-        <v>2749858854.835258</v>
+        <v>2749858619.756533</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2206483274.557195</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2926088461.442805</v>
       </c>
     </row>
     <row r="3">
@@ -466,7 +482,13 @@
         <v>45078</v>
       </c>
       <c r="B3" t="n">
-        <v>2779818588.973113</v>
+        <v>2779818333.812333</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2147762235.007827</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2984809500.992173</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +496,13 @@
         <v>45108</v>
       </c>
       <c r="B4" t="n">
-        <v>2806063690.904339</v>
+        <v>2806063416.41587</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2096321873.104896</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3036249862.895104</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +510,13 @@
         <v>45139</v>
       </c>
       <c r="B5" t="n">
-        <v>2829706796.909052</v>
+        <v>2829706504.041966</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2049981421.357746</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3082590314.642254</v>
       </c>
     </row>
     <row r="6">
@@ -490,7 +524,13 @@
         <v>45170</v>
       </c>
       <c r="B6" t="n">
-        <v>2851395964.660695</v>
+        <v>2851395654.33008</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2007470686.793044</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3125101049.206956</v>
       </c>
     </row>
     <row r="7">
@@ -498,7 +538,13 @@
         <v>45200</v>
       </c>
       <c r="B7" t="n">
-        <v>2871547966.283482</v>
+        <v>2871547639.32031</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1967972796.212193</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3164598939.787807</v>
       </c>
     </row>
     <row r="8">
@@ -506,7 +552,13 @@
         <v>45231</v>
       </c>
       <c r="B8" t="n">
-        <v>2890449607.611632</v>
+        <v>2890449264.758552</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1930925610.353238</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3201646125.646762</v>
       </c>
     </row>
     <row r="9">
@@ -514,7 +566,13 @@
         <v>45261</v>
       </c>
       <c r="B9" t="n">
-        <v>2908308252.515343</v>
+        <v>2908307894.434661</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1895922696.188064</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3236649039.811936</v>
       </c>
     </row>
     <row r="10">
@@ -522,7 +580,13 @@
         <v>45292</v>
       </c>
       <c r="B10" t="n">
-        <v>2925279590.702952</v>
+        <v>2925279217.987018</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1862658902.025445</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3269912833.974555</v>
       </c>
     </row>
     <row r="11">
@@ -530,7 +594,13 @@
         <v>45323</v>
       </c>
       <c r="B11" t="n">
-        <v>2941484048.1271</v>
+        <v>2941483661.308184</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1830898193.115959</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3301673542.884041</v>
       </c>
     </row>
     <row r="12">
@@ -538,7 +608,13 @@
         <v>45352</v>
       </c>
       <c r="B12" t="n">
-        <v>2957017048.994364</v>
+        <v>2957016648.553261</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1800453538.115609</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3332118197.884391</v>
       </c>
     </row>
     <row r="13">
@@ -546,7 +622,13 @@
         <v>45383</v>
       </c>
       <c r="B13" t="n">
-        <v>2971955730.36571</v>
+        <v>2971955316.738982</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1771173748.471594</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3361397987.528406</v>
       </c>
     </row>
     <row r="14">
@@ -554,7 +636,13 @@
         <v>45413</v>
       </c>
       <c r="B14" t="n">
-        <v>2986363502.089673</v>
+        <v>2986363075.675707</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1742934540.955614</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3389637195.044386</v>
       </c>
     </row>
     <row r="15">
@@ -562,7 +650,13 @@
         <v>45444</v>
       </c>
       <c r="B15" t="n">
-        <v>3000293241.316331</v>
+        <v>3000292802.480371</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1715632276.418474</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3416939459.581526</v>
       </c>
     </row>
     <row r="16">
@@ -570,7 +664,13 @@
         <v>45474</v>
       </c>
       <c r="B16" t="n">
-        <v>3013789590.357149</v>
+        <v>3013789139.435504</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1689179455.986413</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3443392280.013587</v>
       </c>
     </row>
     <row r="17">
@@ -578,7 +678,13 @@
         <v>45505</v>
       </c>
       <c r="B17" t="n">
-        <v>3026890647.560598</v>
+        <v>3026890184.864169</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1663501406.946229</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3469070329.053771</v>
       </c>
     </row>
     <row r="18">
@@ -586,7 +692,13 @@
         <v>45536</v>
       </c>
       <c r="B18" t="n">
-        <v>3039629236.375041</v>
+        <v>3039628762.192294</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1638533795.383104</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3494037940.616896</v>
       </c>
     </row>
     <row r="19">
@@ -594,7 +706,13 @@
         <v>45566</v>
       </c>
       <c r="B19" t="n">
-        <v>3052033874.496367</v>
+        <v>3052033389.095853</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1614220726.652128</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3518351009.347873</v>
       </c>
     </row>
     <row r="20">
@@ -602,7 +720,13 @@
         <v>45597</v>
       </c>
       <c r="B20" t="n">
-        <v>3064129525.432489</v>
+        <v>3064129029.065004</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1590513272.312592</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3542058463.687408</v>
       </c>
     </row>
     <row r="21">
@@ -610,7 +734,13 @@
         <v>45627</v>
       </c>
       <c r="B21" t="n">
-        <v>3075938189.368519</v>
+        <v>3075937682.268943</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1567368312.032871</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3565203423.967129</v>
       </c>
     </row>
     <row r="22">
@@ -618,7 +748,13 @@
         <v>45658</v>
       </c>
       <c r="B22" t="n">
-        <v>3087479373.43429</v>
+        <v>3087478855.823181</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1544747611.866565</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3587824124.133435</v>
       </c>
     </row>
     <row r="23">
@@ -626,7 +762,13 @@
         <v>45689</v>
       </c>
       <c r="B23" t="n">
-        <v>3098770470.159956</v>
+        <v>3098769942.244934</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1522617082.47993</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3609954653.52007</v>
       </c>
     </row>
     <row r="24">
@@ -634,7 +776,13 @@
         <v>45717</v>
       </c>
       <c r="B24" t="n">
-        <v>3109827065.121258</v>
+        <v>3109826527.098207</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1500946176.167514</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3631625559.832486</v>
       </c>
     </row>
     <row r="25">
@@ -642,7 +790,13 @@
         <v>45748</v>
       </c>
       <c r="B25" t="n">
-        <v>3120663189.324181</v>
+        <v>3120662641.378307</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1479707392.178518</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3652864343.821483</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +804,13 @@
         <v>45778</v>
       </c>
       <c r="B26" t="n">
-        <v>3131291527.997435</v>
+        <v>3131290970.304194</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1458875867.48378</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3673695868.51622</v>
       </c>
     </row>
     <row r="27">
@@ -658,7 +818,13 @@
         <v>45809</v>
       </c>
       <c r="B27" t="n">
-        <v>3141723594.656587</v>
+        <v>3141723027.382501</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1438429035.610298</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3694142700.389702</v>
       </c>
     </row>
     <row r="28">
@@ -666,7 +832,13 @@
         <v>45839</v>
       </c>
       <c r="B28" t="n">
-        <v>3151969877.24924</v>
+        <v>3151969300.55263</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1418346340.196845</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3714225395.803155</v>
       </c>
     </row>
     <row r="29">
@@ -674,7 +846,13 @@
         <v>45870</v>
       </c>
       <c r="B29" t="n">
-        <v>3162039961.666865</v>
+        <v>3162039375.698495</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1398608992.91095</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3733962743.08905</v>
       </c>
     </row>
     <row r="30">
@@ -682,7 +860,13 @@
         <v>45901</v>
       </c>
       <c r="B30" t="n">
-        <v>3171942636.765437</v>
+        <v>3171942041.669096</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1379199767.608572</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3753371968.391428</v>
       </c>
     </row>
     <row r="31">
@@ -690,7 +874,13 @@
         <v>45931</v>
       </c>
       <c r="B31" t="n">
-        <v>3181685984.169922</v>
+        <v>3181685380.082939</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1360102824.317439</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3772468911.682561</v>
       </c>
     </row>
     <row r="32">
@@ -698,7 +888,13 @@
         <v>45962</v>
       </c>
       <c r="B32" t="n">
-        <v>3191277455.473397</v>
+        <v>3191276842.527112</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1341303557.926861</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3791268178.073139</v>
       </c>
     </row>
     <row r="33">
@@ -706,7 +902,13 @@
         <v>45992</v>
       </c>
       <c r="B33" t="n">
-        <v>3200723938.928187</v>
+        <v>3200723317.24837</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1322788467.473194</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3809783268.526806</v>
       </c>
     </row>
     <row r="34">
@@ -714,7 +916,13 @@
         <v>46023</v>
       </c>
       <c r="B34" t="n">
-        <v>3210031817.326008</v>
+        <v>3210031187.03324</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1304545042.69485</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3828026693.30515</v>
       </c>
     </row>
     <row r="35">
@@ -722,7 +930,13 @@
         <v>46054</v>
       </c>
       <c r="B35" t="n">
-        <v>3219207018.44943</v>
+        <v>3219206379.65945</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1286561665.147479</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3846010070.852521</v>
       </c>
     </row>
     <row r="36">
@@ -730,7 +944,13 @@
         <v>46082</v>
       </c>
       <c r="B36" t="n">
-        <v>3228255059.227787</v>
+        <v>3228254412.051805</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1268827521.658462</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3863744214.341538</v>
       </c>
     </row>
     <row r="37">
@@ -738,7 +958,13 @@
         <v>46113</v>
       </c>
       <c r="B37" t="n">
-        <v>3237181084.531862</v>
+        <v>3237180429.076848</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1251332528.289379</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3881239207.710621</v>
       </c>
     </row>
     <row r="38">
@@ -746,7 +972,13 @@
         <v>46143</v>
       </c>
       <c r="B38" t="n">
-        <v>3245989901.382102</v>
+        <v>3245989237.751045</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1234067263.287953</v>
+      </c>
+      <c r="D38" t="n">
+        <v>3898504472.712048</v>
       </c>
     </row>
     <row r="39">
@@ -754,7 +986,13 @@
         <v>46174</v>
       </c>
       <c r="B39" t="n">
-        <v>3254686009.216183</v>
+        <v>3254685337.508333</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1217022907.763667</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3915548828.236333</v>
       </c>
     </row>
     <row r="40">
@@ -762,7 +1000,13 @@
         <v>46204</v>
       </c>
       <c r="B40" t="n">
-        <v>3263273626.756941</v>
+        <v>3263272947.06803</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1200191193.026662</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3932380542.973338</v>
       </c>
     </row>
     <row r="41">
@@ -770,7 +1014,13 @@
         <v>46235</v>
       </c>
       <c r="B41" t="n">
-        <v>3271756715.936034</v>
+        <v>3271756028.358476</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1183564353.697388</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3949007382.302612</v>
       </c>
     </row>
     <row r="42">
@@ -778,7 +1028,13 @@
         <v>46266</v>
       </c>
       <c r="B42" t="n">
-        <v>3280139003.258332</v>
+        <v>3280138307.881411</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1167135085.832436</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3965436650.167564</v>
       </c>
     </row>
     <row r="43">
@@ -786,7 +1042,13 @@
         <v>46296</v>
       </c>
       <c r="B43" t="n">
-        <v>3288423998.933905</v>
+        <v>3288423295.843947</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1150896509.425863</v>
+      </c>
+      <c r="D43" t="n">
+        <v>3981675226.574137</v>
       </c>
     </row>
     <row r="44">
@@ -794,7 +1056,13 @@
         <v>46327</v>
       </c>
       <c r="B44" t="n">
-        <v>3296615014.056267</v>
+        <v>3296614303.336802</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1134842134.739868</v>
+      </c>
+      <c r="D44" t="n">
+        <v>3997729601.260132</v>
       </c>
     </row>
     <row r="45">
@@ -802,7 +1070,13 @@
         <v>46357</v>
       </c>
       <c r="B45" t="n">
-        <v>3304715176.065329</v>
+        <v>3304714457.797234</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1118965831.997423</v>
+      </c>
+      <c r="D45" t="n">
+        <v>4013605904.002577</v>
       </c>
     </row>
     <row r="46">
@@ -810,7 +1084,13 @@
         <v>46388</v>
       </c>
       <c r="B46" t="n">
-        <v>3312727442.699858</v>
+        <v>3312726716.961497</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1103261804.035466</v>
+      </c>
+      <c r="D46" t="n">
+        <v>4029309931.964534</v>
       </c>
     </row>
     <row r="47">
@@ -818,7 +1098,13 @@
         <v>46419</v>
       </c>
       <c r="B47" t="n">
-        <v>3320654614.615982</v>
+        <v>3320653881.483333</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1087724561.572668</v>
+      </c>
+      <c r="D47" t="n">
+        <v>4044847174.427332</v>
       </c>
     </row>
     <row r="48">
@@ -826,7 +1112,13 @@
         <v>46447</v>
       </c>
       <c r="B48" t="n">
-        <v>3328499346.824358</v>
+        <v>3328498606.371131</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1072348900.792582</v>
+      </c>
+      <c r="D48" t="n">
+        <v>4060222835.207418</v>
       </c>
     </row>
     <row r="49">
@@ -834,7 +1126,13 @@
         <v>46478</v>
       </c>
       <c r="B49" t="n">
-        <v>3336264159.078452</v>
+        <v>3336263411.3762</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1057129882.982647</v>
+      </c>
+      <c r="D49" t="n">
+        <v>4075441853.017353</v>
       </c>
     </row>
     <row r="50">
@@ -842,7 +1140,13 @@
         <v>46508</v>
       </c>
       <c r="B50" t="n">
-        <v>3343951445.329135</v>
+        <v>3343950690.447356</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1042062816.003182</v>
+      </c>
+      <c r="D50" t="n">
+        <v>4090508919.996818</v>
       </c>
     </row>
     <row r="51">
@@ -850,7 +1154,13 @@
         <v>46539</v>
       </c>
       <c r="B51" t="n">
-        <v>3351563482.346176</v>
+        <v>3351562720.352409</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1027143237.389278</v>
+      </c>
+      <c r="D51" t="n">
+        <v>4105428498.610722</v>
       </c>
     </row>
     <row r="52">
@@ -858,7 +1168,13 @@
         <v>46569</v>
       </c>
       <c r="B52" t="n">
-        <v>3359102437.594622</v>
+        <v>3359101668.55454</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1012366898.913101</v>
+      </c>
+      <c r="D52" t="n">
+        <v>4120204837.086899</v>
       </c>
     </row>
     <row r="53">
@@ -866,7 +1182,13 @@
         <v>46600</v>
       </c>
       <c r="B53" t="n">
-        <v>3366570376.443308</v>
+        <v>3366569600.4208</v>
+      </c>
+      <c r="C53" t="n">
+        <v>997729752.4552329</v>
+      </c>
+      <c r="D53" t="n">
+        <v>4134841983.544767</v>
       </c>
     </row>
     <row r="54">
@@ -874,7 +1196,13 @@
         <v>46631</v>
       </c>
       <c r="B54" t="n">
-        <v>3373969268.773416</v>
+        <v>3373968485.830665</v>
+      </c>
+      <c r="C54" t="n">
+        <v>983227937.0518973</v>
+      </c>
+      <c r="D54" t="n">
+        <v>4149343798.948103</v>
       </c>
     </row>
     <row r="55">
@@ -882,7 +1210,13 @@
         <v>46661</v>
       </c>
       <c r="B55" t="n">
-        <v>3381300995.047022</v>
+        <v>3381300205.244582</v>
+      </c>
+      <c r="C55" t="n">
+        <v>968857767.0006196</v>
+      </c>
+      <c r="D55" t="n">
+        <v>4163713968.99938</v>
       </c>
     </row>
     <row r="56">
@@ -890,7 +1224,13 @@
         <v>46692</v>
       </c>
       <c r="B56" t="n">
-        <v>3388567351.888599</v>
+        <v>3388566555.285463</v>
+      </c>
+      <c r="C56" t="n">
+        <v>954615720.9204917</v>
+      </c>
+      <c r="D56" t="n">
+        <v>4177956015.079508</v>
       </c>
     </row>
     <row r="57">
@@ -898,7 +1238,13 @@
         <v>46722</v>
       </c>
       <c r="B57" t="n">
-        <v>3395770057.226413</v>
+        <v>3395769253.880081</v>
+      </c>
+      <c r="C57" t="n">
+        <v>940498431.675041</v>
+      </c>
+      <c r="D57" t="n">
+        <v>4192073304.324959</v>
       </c>
     </row>
     <row r="58">
@@ -906,7 +1252,13 @@
         <v>46753</v>
       </c>
       <c r="B58" t="n">
-        <v>3402910755.0355</v>
+        <v>3402909945.002038</v>
+      </c>
+      <c r="C58" t="n">
+        <v>926502677.0760045</v>
+      </c>
+      <c r="D58" t="n">
+        <v>4206069058.923995</v>
       </c>
     </row>
     <row r="59">
@@ -914,7 +1266,13 @@
         <v>46784</v>
       </c>
       <c r="B59" t="n">
-        <v>3409991019.719324</v>
+        <v>3409990203.053425</v>
+      </c>
+      <c r="C59" t="n">
+        <v>912625371.2952867</v>
+      </c>
+      <c r="D59" t="n">
+        <v>4219946364.704713</v>
       </c>
     </row>
     <row r="60">
@@ -922,7 +1280,13 @@
         <v>46813</v>
       </c>
       <c r="B60" t="n">
-        <v>3417012360.163193</v>
+        <v>3417011536.918231</v>
+      </c>
+      <c r="C60" t="n">
+        <v>898863556.9202671</v>
+      </c>
+      <c r="D60" t="n">
+        <v>4233708179.079733</v>
       </c>
     </row>
     <row r="61">
@@ -930,7 +1294,13 @@
         <v>46844</v>
       </c>
       <c r="B61" t="n">
-        <v>3423976223.489004</v>
+        <v>3423975393.717087</v>
+      </c>
+      <c r="C61" t="n">
+        <v>885214397.5945101</v>
+      </c>
+      <c r="D61" t="n">
+        <v>4247357338.40549</v>
       </c>
     </row>
     <row r="62">
@@ -938,7 +1308,13 @@
         <v>46874</v>
       </c>
       <c r="B62" t="n">
-        <v>3430883998.537776</v>
+        <v>3430883162.289793</v>
+      </c>
+      <c r="C62" t="n">
+        <v>871675171.1920063</v>
+      </c>
+      <c r="D62" t="n">
+        <v>4260896564.807994</v>
       </c>
     </row>
     <row r="63">
@@ -946,7 +1322,13 @@
         <v>46905</v>
       </c>
       <c r="B63" t="n">
-        <v>3437737019.10371</v>
+        <v>3437736176.429379</v>
+      </c>
+      <c r="C63" t="n">
+        <v>858243263.4784172</v>
+      </c>
+      <c r="D63" t="n">
+        <v>4274328472.521583</v>
       </c>
     </row>
     <row r="64">
@@ -954,7 +1336,13 @@
         <v>46935</v>
       </c>
       <c r="B64" t="n">
-        <v>3444536566.941107</v>
+        <v>3444535717.889022</v>
+      </c>
+      <c r="C64" t="n">
+        <v>844916162.2175174</v>
+      </c>
+      <c r="D64" t="n">
+        <v>4287655573.782483</v>
       </c>
     </row>
     <row r="65">
@@ -962,7 +1350,13 @@
         <v>46966</v>
       </c>
       <c r="B65" t="n">
-        <v>3451283874.563353</v>
+        <v>3451283019.181019</v>
+      </c>
+      <c r="C65" t="n">
+        <v>831691451.6852036</v>
+      </c>
+      <c r="D65" t="n">
+        <v>4300880284.314796</v>
       </c>
     </row>
     <row r="66">
@@ -970,7 +1364,13 @@
         <v>46997</v>
       </c>
       <c r="B66" t="n">
-        <v>3457980127.851252</v>
+        <v>3457979266.185132</v>
+      </c>
+      <c r="C66" t="n">
+        <v>818566807.5571418</v>
+      </c>
+      <c r="D66" t="n">
+        <v>4314004928.442858</v>
       </c>
     </row>
     <row r="67">
@@ -978,7 +1378,13 @@
         <v>47027</v>
       </c>
       <c r="B67" t="n">
-        <v>3464626468.486382</v>
+        <v>3464625600.581932</v>
+      </c>
+      <c r="C67" t="n">
+        <v>805539992.1394131</v>
+      </c>
+      <c r="D67" t="n">
+        <v>4327031743.860587</v>
       </c>
     </row>
     <row r="68">
@@ -986,7 +1392,13 @@
         <v>47058</v>
       </c>
       <c r="B68" t="n">
-        <v>3471223996.22358</v>
+        <v>3471223122.125283</v>
+      </c>
+      <c r="C68" t="n">
+        <v>792608849.9144459</v>
+      </c>
+      <c r="D68" t="n">
+        <v>4339962886.085554</v>
       </c>
     </row>
     <row r="69">
@@ -994,7 +1406,13 @@
         <v>47088</v>
       </c>
       <c r="B69" t="n">
-        <v>3477773771.015372</v>
+        <v>3477772890.766773</v>
+      </c>
+      <c r="C69" t="n">
+        <v>779771303.3771245</v>
+      </c>
+      <c r="D69" t="n">
+        <v>4352800432.622875</v>
       </c>
     </row>
     <row r="70">
@@ -1002,7 +1420,13 @@
         <v>47119</v>
       </c>
       <c r="B70" t="n">
-        <v>3484276814.999982</v>
+        <v>3484275928.643723</v>
+      </c>
+      <c r="C70" t="n">
+        <v>767025349.138304</v>
+      </c>
+      <c r="D70" t="n">
+        <v>4365546386.861696</v>
       </c>
     </row>
     <row r="71">
@@ -1010,7 +1434,13 @@
         <v>47150</v>
       </c>
       <c r="B71" t="n">
-        <v>3490734114.363466</v>
+        <v>3490733221.941313</v>
+      </c>
+      <c r="C71" t="n">
+        <v>754369054.275027</v>
+      </c>
+      <c r="D71" t="n">
+        <v>4378202681.724973</v>
       </c>
     </row>
     <row r="72">
@@ -1018,7 +1448,13 @@
         <v>47178</v>
       </c>
       <c r="B72" t="n">
-        <v>3497146621.085578</v>
+        <v>3497145722.638454</v>
+      </c>
+      <c r="C72" t="n">
+        <v>741800552.9086299</v>
+      </c>
+      <c r="D72" t="n">
+        <v>4390771183.09137</v>
       </c>
     </row>
     <row r="73">
@@ -1026,7 +1462,13 @@
         <v>47209</v>
       </c>
       <c r="B73" t="n">
-        <v>3503515254.578128</v>
+        <v>3503514350.146138</v>
+      </c>
+      <c r="C73" t="n">
+        <v>729318042.9935701</v>
+      </c>
+      <c r="D73" t="n">
+        <v>4403253693.00643</v>
       </c>
     </row>
     <row r="74">
@@ -1034,7 +1476,13 @@
         <v>47239</v>
       </c>
       <c r="B74" t="n">
-        <v>3509840903.223795</v>
+        <v>3509839992.846255</v>
+      </c>
+      <c r="C74" t="n">
+        <v>716919783.3013399</v>
+      </c>
+      <c r="D74" t="n">
+        <v>4415651952.69866</v>
       </c>
     </row>
     <row r="75">
@@ -1042,7 +1490,13 @@
         <v>47270</v>
       </c>
       <c r="B75" t="n">
-        <v>3516124425.822718</v>
+        <v>3516123509.53818</v>
+      </c>
+      <c r="C75" t="n">
+        <v>704604090.5851674</v>
+      </c>
+      <c r="D75" t="n">
+        <v>4427967645.414833</v>
       </c>
     </row>
     <row r="76">
@@ -1050,7 +1504,13 @@
         <v>47300</v>
       </c>
       <c r="B76" t="n">
-        <v>3522366652.953502</v>
+        <v>3522365730.799778</v>
+      </c>
+      <c r="C76" t="n">
+        <v>692369336.9124362</v>
+      </c>
+      <c r="D76" t="n">
+        <v>4440202399.087564</v>
       </c>
     </row>
     <row r="77">
@@ -1058,7 +1518,13 @@
         <v>47331</v>
       </c>
       <c r="B77" t="n">
-        <v>3528568388.254767</v>
+        <v>3528567460.268952</v>
+      </c>
+      <c r="C77" t="n">
+        <v>680213947.1528533</v>
+      </c>
+      <c r="D77" t="n">
+        <v>4452357788.847147</v>
       </c>
     </row>
     <row r="78">
@@ -1066,7 +1532,13 @@
         <v>47362</v>
       </c>
       <c r="B78" t="n">
-        <v>3534730409.632834</v>
+        <v>3534729475.851329</v>
+      </c>
+      <c r="C78" t="n">
+        <v>668136396.6113942</v>
+      </c>
+      <c r="D78" t="n">
+        <v>4464435339.388606</v>
       </c>
     </row>
     <row r="79">
@@ -1074,7 +1546,13 @@
         <v>47392</v>
       </c>
       <c r="B79" t="n">
-        <v>3540853470.400672</v>
+        <v>3540852530.859206</v>
+      </c>
+      <c r="C79" t="n">
+        <v>656135208.7959566</v>
+      </c>
+      <c r="D79" t="n">
+        <v>4476436527.204043</v>
       </c>
     </row>
     <row r="80">
@@ -1082,7 +1560,13 @@
         <v>47423</v>
       </c>
       <c r="B80" t="n">
-        <v>3546938300.352848</v>
+        <v>3546937355.086497</v>
+      </c>
+      <c r="C80" t="n">
+        <v>644208953.3104658</v>
+      </c>
+      <c r="D80" t="n">
+        <v>4488362782.689534</v>
       </c>
     </row>
     <row r="81">
@@ -1090,7 +1574,13 @@
         <v>47453</v>
       </c>
       <c r="B81" t="n">
-        <v>3552985606.780811</v>
+        <v>3552984655.824018</v>
+      </c>
+      <c r="C81" t="n">
+        <v>632356243.864924</v>
+      </c>
+      <c r="D81" t="n">
+        <v>4500215492.135077</v>
       </c>
     </row>
     <row r="82">
@@ -1098,7 +1588,13 @@
         <v>47484</v>
       </c>
       <c r="B82" t="n">
-        <v>3558996075.432503</v>
+        <v>3558995118.819099</v>
+      </c>
+      <c r="C82" t="n">
+        <v>620575736.3945663</v>
+      </c>
+      <c r="D82" t="n">
+        <v>4511995999.605433</v>
       </c>
     </row>
     <row r="83">
@@ -1106,7 +1602,13 @@
         <v>47515</v>
       </c>
       <c r="B83" t="n">
-        <v>3564970371.419997</v>
+        <v>3564969409.183215</v>
+      </c>
+      <c r="C83" t="n">
+        <v>608866127.2808993</v>
+      </c>
+      <c r="D83" t="n">
+        <v>4523705608.719101</v>
       </c>
     </row>
     <row r="84">
@@ -1114,7 +1616,13 @@
         <v>47543</v>
       </c>
       <c r="B84" t="n">
-        <v>3570909140.078548</v>
+        <v>3570908172.251043</v>
+      </c>
+      <c r="C84" t="n">
+        <v>597226151.6679559</v>
+      </c>
+      <c r="D84" t="n">
+        <v>4535345584.332045</v>
       </c>
     </row>
     <row r="85">
@@ -1122,7 +1630,13 @@
         <v>47574</v>
       </c>
       <c r="B85" t="n">
-        <v>3576813007.78021</v>
+        <v>3576812034.394074</v>
+      </c>
+      <c r="C85" t="n">
+        <v>585654581.8676143</v>
+      </c>
+      <c r="D85" t="n">
+        <v>4546917154.132385</v>
       </c>
     </row>
     <row r="86">
@@ -1130,7 +1644,13 @@
         <v>47604</v>
       </c>
       <c r="B86" t="n">
-        <v>3582682582.704911</v>
+        <v>3582681603.791691</v>
+      </c>
+      <c r="C86" t="n">
+        <v>574150225.8482847</v>
+      </c>
+      <c r="D86" t="n">
+        <v>4558421510.151715</v>
       </c>
     </row>
     <row r="87">
@@ -1138,7 +1658,13 @@
         <v>47635</v>
       </c>
       <c r="B87" t="n">
-        <v>3588518455.571683</v>
+        <v>3588517471.162396</v>
+      </c>
+      <c r="C87" t="n">
+        <v>562711925.801703</v>
+      </c>
+      <c r="D87" t="n">
+        <v>4569859810.198298</v>
       </c>
     </row>
     <row r="88">
@@ -1146,7 +1672,13 @@
         <v>47665</v>
       </c>
       <c r="B88" t="n">
-        <v>3594321200.332533</v>
+        <v>3594320210.457679</v>
+      </c>
+      <c r="C88" t="n">
+        <v>551338556.7829492</v>
+      </c>
+      <c r="D88" t="n">
+        <v>4581233179.217051</v>
       </c>
     </row>
     <row r="89">
@@ -1154,7 +1686,13 @@
         <v>47696</v>
       </c>
       <c r="B89" t="n">
-        <v>3600091374.831254</v>
+        <v>3600090379.52083</v>
+      </c>
+      <c r="C89" t="n">
+        <v>540029025.4191732</v>
+      </c>
+      <c r="D89" t="n">
+        <v>4592542710.580827</v>
       </c>
     </row>
     <row r="90">
@@ -1162,7 +1700,13 @@
         <v>47727</v>
       </c>
       <c r="B90" t="n">
-        <v>3605829521.429325</v>
+        <v>3605828520.712842</v>
+      </c>
+      <c r="C90" t="n">
+        <v>528782268.6828308</v>
+      </c>
+      <c r="D90" t="n">
+        <v>4603789467.317169</v>
       </c>
     </row>
     <row r="91">
@@ -1170,7 +1714,13 @@
         <v>47757</v>
       </c>
       <c r="B91" t="n">
-        <v>3611536167.600891</v>
+        <v>3611535161.507382</v>
+      </c>
+      <c r="C91" t="n">
+        <v>517597252.7255318</v>
+      </c>
+      <c r="D91" t="n">
+        <v>4614974483.274468</v>
       </c>
     </row>
     <row r="92">
@@ -1178,7 +1728,13 @@
         <v>47788</v>
       </c>
       <c r="B92" t="n">
-        <v>3617211826.498654</v>
+        <v>3617210815.056692</v>
+      </c>
+      <c r="C92" t="n">
+        <v>506472971.7688844</v>
+      </c>
+      <c r="D92" t="n">
+        <v>4626098764.231115</v>
       </c>
     </row>
     <row r="93">
@@ -1186,7 +1742,13 @@
         <v>47818</v>
       </c>
       <c r="B93" t="n">
-        <v>3622856997.492415</v>
+        <v>3622855980.730121</v>
+      </c>
+      <c r="C93" t="n">
+        <v>495408447.048964</v>
+      </c>
+      <c r="D93" t="n">
+        <v>4637163288.951036</v>
       </c>
     </row>
     <row r="94">
@@ -1194,7 +1756,13 @@
         <v>47849</v>
       </c>
       <c r="B94" t="n">
-        <v>3628472166.681847</v>
+        <v>3628471144.626902</v>
+      </c>
+      <c r="C94" t="n">
+        <v>484402725.8112719</v>
+      </c>
+      <c r="D94" t="n">
+        <v>4648169010.188728</v>
       </c>
     </row>
     <row r="95">
@@ -1202,7 +1770,13 @@
         <v>47880</v>
       </c>
       <c r="B95" t="n">
-        <v>3634057807.385</v>
+        <v>3634056780.064661</v>
+      </c>
+      <c r="C95" t="n">
+        <v>473454880.3532641</v>
+      </c>
+      <c r="D95" t="n">
+        <v>4659116855.646736</v>
       </c>
     </row>
     <row r="96">
@@ -1210,7 +1784,13 @@
         <v>47908</v>
       </c>
       <c r="B96" t="n">
-        <v>3639614380.603931</v>
+        <v>3639613348.045036</v>
+      </c>
+      <c r="C96" t="n">
+        <v>462564007.1117291</v>
+      </c>
+      <c r="D96" t="n">
+        <v>4670007728.888271</v>
       </c>
     </row>
     <row r="97">
@@ -1218,7 +1798,13 @@
         <v>47939</v>
       </c>
       <c r="B97" t="n">
-        <v>3645142335.468741</v>
+        <v>3645141297.697722</v>
+      </c>
+      <c r="C97" t="n">
+        <v>451729225.7924647</v>
+      </c>
+      <c r="D97" t="n">
+        <v>4680842510.207535</v>
       </c>
     </row>
     <row r="98">
@@ -1226,7 +1812,13 @@
         <v>47969</v>
       </c>
       <c r="B98" t="n">
-        <v>3650642109.661242</v>
+        <v>3650641066.704136</v>
+      </c>
+      <c r="C98" t="n">
+        <v>440949678.5398939</v>
+      </c>
+      <c r="D98" t="n">
+        <v>4691622057.460106</v>
       </c>
     </row>
     <row r="99">
@@ -1234,7 +1826,13 @@
         <v>48000</v>
       </c>
       <c r="B99" t="n">
-        <v>3656114129.819383</v>
+        <v>3656113081.701839</v>
+      </c>
+      <c r="C99" t="n">
+        <v>430224529.1443942</v>
+      </c>
+      <c r="D99" t="n">
+        <v>4702347206.855606</v>
       </c>
     </row>
     <row r="100">
@@ -1242,7 +1840,13 @@
         <v>48030</v>
       </c>
       <c r="B100" t="n">
-        <v>3661558811.923487</v>
+        <v>3661557758.67078</v>
+      </c>
+      <c r="C100" t="n">
+        <v>419552962.2852716</v>
+      </c>
+      <c r="D100" t="n">
+        <v>4713018773.714728</v>
       </c>
     </row>
     <row r="101">
@@ -1250,7 +1854,13 @@
         <v>48061</v>
       </c>
       <c r="B101" t="n">
-        <v>3666976561.665293</v>
+        <v>3666975503.302329</v>
+      </c>
+      <c r="C101" t="n">
+        <v>408934182.807435</v>
+      </c>
+      <c r="D101" t="n">
+        <v>4723637553.192565</v>
       </c>
     </row>
     <row r="102">
@@ -1258,7 +1868,13 @@
         <v>48092</v>
       </c>
       <c r="B102" t="n">
-        <v>3672367774.800734</v>
+        <v>3672366711.352059</v>
+      </c>
+      <c r="C102" t="n">
+        <v>398367415.029963</v>
+      </c>
+      <c r="D102" t="n">
+        <v>4734204320.970037</v>
       </c>
     </row>
     <row r="103">
@@ -1266,7 +1882,13 @@
         <v>48122</v>
       </c>
       <c r="B103" t="n">
-        <v>3677732837.487304</v>
+        <v>3677731768.977116</v>
+      </c>
+      <c r="C103" t="n">
+        <v>387851902.0848532</v>
+      </c>
+      <c r="D103" t="n">
+        <v>4744719833.915147</v>
       </c>
     </row>
     <row r="104">
@@ -1274,7 +1896,13 @@
         <v>48153</v>
       </c>
       <c r="B104" t="n">
-        <v>3683072126.606844</v>
+        <v>3683071053.058999</v>
+      </c>
+      <c r="C104" t="n">
+        <v>377386905.2843628</v>
+      </c>
+      <c r="D104" t="n">
+        <v>4755184830.715637</v>
       </c>
     </row>
     <row r="105">
@@ -1282,7 +1910,13 @@
         <v>48183</v>
       </c>
       <c r="B105" t="n">
-        <v>3688386010.074511</v>
+        <v>3688384931.512527</v>
+      </c>
+      <c r="C105" t="n">
+        <v>366971703.5154462</v>
+      </c>
+      <c r="D105" t="n">
+        <v>4765600032.484554</v>
       </c>
     </row>
     <row r="106">
@@ -1290,7 +1924,13 @@
         <v>48214</v>
       </c>
       <c r="B106" t="n">
-        <v>3693674847.13462</v>
+        <v>3693673763.581694</v>
+      </c>
+      <c r="C106" t="n">
+        <v>356605592.6598802</v>
+      </c>
+      <c r="D106" t="n">
+        <v>4775966143.34012</v>
       </c>
     </row>
     <row r="107">
@@ -1298,7 +1938,13 @@
         <v>48245</v>
       </c>
       <c r="B107" t="n">
-        <v>3698938988.644075</v>
+        <v>3698937900.123083</v>
+      </c>
+      <c r="C107" t="n">
+        <v>346287885.0387573</v>
+      </c>
+      <c r="D107" t="n">
+        <v>4786283850.961243</v>
       </c>
     </row>
     <row r="108">
@@ -1306,7 +1952,13 @@
         <v>48274</v>
       </c>
       <c r="B108" t="n">
-        <v>3704178777.343989</v>
+        <v>3704177683.877493</v>
+      </c>
+      <c r="C108" t="n">
+        <v>336017908.8801131</v>
+      </c>
+      <c r="D108" t="n">
+        <v>4796553827.119886</v>
       </c>
     </row>
     <row r="109">
@@ -1314,7 +1966,13 @@
         <v>48305</v>
       </c>
       <c r="B109" t="n">
-        <v>3709394548.120088</v>
+        <v>3709393449.73035</v>
+      </c>
+      <c r="C109" t="n">
+        <v>325795007.8085141</v>
+      </c>
+      <c r="D109" t="n">
+        <v>4806776728.191486</v>
       </c>
     </row>
     <row r="110">
@@ -1322,7 +1980,13 @@
         <v>48335</v>
       </c>
       <c r="B110" t="n">
-        <v>3714586628.252493</v>
+        <v>3714585524.961473</v>
+      </c>
+      <c r="C110" t="n">
+        <v>315618540.3555121</v>
+      </c>
+      <c r="D110" t="n">
+        <v>4816953195.644487</v>
       </c>
     </row>
     <row r="111">
@@ -1330,7 +1994,13 @@
         <v>48366</v>
       </c>
       <c r="B111" t="n">
-        <v>3719755337.655359</v>
+        <v>3719754229.48473</v>
+      </c>
+      <c r="C111" t="n">
+        <v>305487879.4899297</v>
+      </c>
+      <c r="D111" t="n">
+        <v>4827083856.510071</v>
       </c>
     </row>
     <row r="112">
@@ -1338,7 +2008,13 @@
         <v>48396</v>
       </c>
       <c r="B112" t="n">
-        <v>3724900989.10691</v>
+        <v>3724899876.078055</v>
+      </c>
+      <c r="C112" t="n">
+        <v>295402412.1670113</v>
+      </c>
+      <c r="D112" t="n">
+        <v>4837169323.832989</v>
       </c>
     </row>
     <row r="113">
@@ -1346,7 +2022,13 @@
         <v>48427</v>
       </c>
       <c r="B113" t="n">
-        <v>3730023888.470305</v>
+        <v>3730022770.604332</v>
+      </c>
+      <c r="C113" t="n">
+        <v>285361538.8955083</v>
+      </c>
+      <c r="D113" t="n">
+        <v>4847210197.104492</v>
       </c>
     </row>
     <row r="114">
@@ -1354,7 +2036,13 @@
         <v>48458</v>
       </c>
       <c r="B114" t="n">
-        <v>3735124334.905802</v>
+        <v>3735123212.223547</v>
+      </c>
+      <c r="C114" t="n">
+        <v>275364673.3218474</v>
+      </c>
+      <c r="D114" t="n">
+        <v>4857207062.678152</v>
       </c>
     </row>
     <row r="115">
@@ -1362,7 +2050,13 @@
         <v>48488</v>
       </c>
       <c r="B115" t="n">
-        <v>3740202621.074625</v>
+        <v>3740201493.596654</v>
+      </c>
+      <c r="C115" t="n">
+        <v>265411241.8305578</v>
+      </c>
+      <c r="D115" t="n">
+        <v>4867160494.169442</v>
       </c>
     </row>
     <row r="116">
@@ -1370,7 +2064,13 @@
         <v>48519</v>
       </c>
       <c r="B116" t="n">
-        <v>3745259033.334917</v>
+        <v>3745257901.081537</v>
+      </c>
+      <c r="C116" t="n">
+        <v>255500683.1601868</v>
+      </c>
+      <c r="D116" t="n">
+        <v>4877071052.839813</v>
       </c>
     </row>
     <row r="117">
@@ -1378,7 +2078,13 @@
         <v>48549</v>
       </c>
       <c r="B117" t="n">
-        <v>3750293851.930174</v>
+        <v>3750292714.921437</v>
+      </c>
+      <c r="C117" t="n">
+        <v>245632448.0339837</v>
+      </c>
+      <c r="D117" t="n">
+        <v>4886939287.966017</v>
       </c>
     </row>
     <row r="118">
@@ -1386,7 +2092,13 @@
         <v>48580</v>
       </c>
       <c r="B118" t="n">
-        <v>3755307351.170494</v>
+        <v>3755306209.426198</v>
+      </c>
+      <c r="C118" t="n">
+        <v>235805998.8046522</v>
+      </c>
+      <c r="D118" t="n">
+        <v>4896765737.195348</v>
       </c>
     </row>
     <row r="119">
@@ -1394,7 +2106,13 @@
         <v>48611</v>
       </c>
       <c r="B119" t="n">
-        <v>3760299799.606966</v>
+        <v>3760298653.146667</v>
+      </c>
+      <c r="C119" t="n">
+        <v>226020809.1125326</v>
+      </c>
+      <c r="D119" t="n">
+        <v>4906550926.887467</v>
       </c>
     </row>
     <row r="120">
@@ -1402,7 +2120,13 @@
         <v>48639</v>
       </c>
       <c r="B120" t="n">
-        <v>3765271460.199542</v>
+        <v>3765270309.042556</v>
+      </c>
+      <c r="C120" t="n">
+        <v>216276363.5565901</v>
+      </c>
+      <c r="D120" t="n">
+        <v>4916295372.44341</v>
       </c>
     </row>
     <row r="121">
@@ -1410,7 +2134,13 @@
         <v>48670</v>
       </c>
       <c r="B121" t="n">
-        <v>3770222590.478656</v>
+        <v>3770221434.644063</v>
+      </c>
+      <c r="C121" t="n">
+        <v>206572157.3776374</v>
+      </c>
+      <c r="D121" t="n">
+        <v>4925999578.622362</v>
       </c>
     </row>
   </sheetData>
@@ -1424,7 +2154,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B121"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1443,13 +2173,29 @@
           <t>Pronóstico</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Inferior 95</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Superior 95</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>45047</v>
       </c>
       <c r="B2" t="n">
-        <v>2749851410.054436</v>
+        <v>2749858619.756533</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2206483274.557195</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2926088461.442805</v>
       </c>
     </row>
     <row r="3">
@@ -1457,7 +2203,13 @@
         <v>45078</v>
       </c>
       <c r="B3" t="n">
-        <v>2779801434.797751</v>
+        <v>2779818333.812333</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2147762235.007827</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2984809500.992173</v>
       </c>
     </row>
     <row r="4">
@@ -1465,7 +2217,13 @@
         <v>45108</v>
       </c>
       <c r="B4" t="n">
-        <v>2806038837.325076</v>
+        <v>2806063416.41587</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2096321873.104896</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3036249862.895104</v>
       </c>
     </row>
     <row r="5">
@@ -1473,7 +2231,13 @@
         <v>45139</v>
       </c>
       <c r="B5" t="n">
-        <v>2829675456.509904</v>
+        <v>2829706504.041966</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2049981421.357746</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3082590314.642254</v>
       </c>
     </row>
     <row r="6">
@@ -1481,7 +2245,13 @@
         <v>45170</v>
       </c>
       <c r="B6" t="n">
-        <v>2851358954.015924</v>
+        <v>2851395654.33008</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2007470686.793044</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3125101049.206956</v>
       </c>
     </row>
     <row r="7">
@@ -1489,7 +2259,13 @@
         <v>45200</v>
       </c>
       <c r="B7" t="n">
-        <v>2871505876.200427</v>
+        <v>2871547639.32031</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1967972796.212193</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3164598939.787807</v>
       </c>
     </row>
     <row r="8">
@@ -1497,7 +2273,13 @@
         <v>45231</v>
       </c>
       <c r="B8" t="n">
-        <v>2890402887.672054</v>
+        <v>2890449264.758552</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1930925610.353238</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3201646125.646762</v>
       </c>
     </row>
     <row r="9">
@@ -1505,7 +2287,13 @@
         <v>45261</v>
       </c>
       <c r="B9" t="n">
-        <v>2908257257.850555</v>
+        <v>2908307894.434661</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1895922696.188064</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3236649039.811936</v>
       </c>
     </row>
     <row r="10">
@@ -1513,7 +2301,13 @@
         <v>45292</v>
       </c>
       <c r="B10" t="n">
-        <v>2925224610.004184</v>
+        <v>2925279217.987018</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1862658902.025445</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3269912833.974555</v>
       </c>
     </row>
     <row r="11">
@@ -1521,7 +2315,13 @@
         <v>45323</v>
       </c>
       <c r="B11" t="n">
-        <v>2941425321.466004</v>
+        <v>2941483661.308184</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1830898193.115959</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3301673542.884041</v>
       </c>
     </row>
     <row r="12">
@@ -1529,7 +2329,13 @@
         <v>45352</v>
       </c>
       <c r="B12" t="n">
-        <v>2956954779.716812</v>
+        <v>2957016648.553261</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1800453538.115609</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3332118197.884391</v>
       </c>
     </row>
     <row r="13">
@@ -1537,7 +2343,13 @@
         <v>45383</v>
       </c>
       <c r="B13" t="n">
-        <v>2971890093.344392</v>
+        <v>2971955316.738982</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1771173748.471594</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3361397987.528406</v>
       </c>
     </row>
     <row r="14">
@@ -1545,7 +2357,13 @@
         <v>45413</v>
       </c>
       <c r="B14" t="n">
-        <v>2986294649.637301</v>
+        <v>2986363075.675707</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1742934540.955614</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3389637195.044386</v>
       </c>
     </row>
     <row r="15">
@@ -1553,7 +2371,13 @@
         <v>45444</v>
       </c>
       <c r="B15" t="n">
-        <v>3000221307.538736</v>
+        <v>3000292802.480371</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1715632276.418474</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3416939459.581526</v>
       </c>
     </row>
     <row r="16">
@@ -1561,7 +2385,13 @@
         <v>45474</v>
       </c>
       <c r="B16" t="n">
-        <v>3013714694.432654</v>
+        <v>3013789139.435504</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1689179455.986413</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3443392280.013587</v>
       </c>
     </row>
     <row r="17">
@@ -1569,7 +2399,13 @@
         <v>45505</v>
       </c>
       <c r="B17" t="n">
-        <v>3026812896.260153</v>
+        <v>3026890184.864169</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1663501406.946229</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3469070329.053771</v>
       </c>
     </row>
     <row r="18">
@@ -1577,7 +2413,13 @@
         <v>45536</v>
       </c>
       <c r="B18" t="n">
-        <v>3039548726.032779</v>
+        <v>3039628762.192294</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1638533795.383104</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3494037940.616896</v>
       </c>
     </row>
     <row r="19">
@@ -1585,7 +2427,13 @@
         <v>45566</v>
       </c>
       <c r="B19" t="n">
-        <v>3051950692.574088</v>
+        <v>3052033389.095853</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1614220726.652128</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3518351009.347873</v>
       </c>
     </row>
     <row r="20">
@@ -1593,7 +2441,13 @@
         <v>45597</v>
       </c>
       <c r="B20" t="n">
-        <v>3064043751.778656</v>
+        <v>3064129029.065004</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1590513272.312592</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3542058463.687408</v>
       </c>
     </row>
     <row r="21">
@@ -1601,7 +2455,13 @@
         <v>45627</v>
       </c>
       <c r="B21" t="n">
-        <v>3075849897.243658</v>
+        <v>3075937682.268943</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1567368312.032871</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3565203423.967129</v>
       </c>
     </row>
     <row r="22">
@@ -1609,7 +2469,13 @@
         <v>45658</v>
       </c>
       <c r="B22" t="n">
-        <v>3087388630.355236</v>
+        <v>3087478855.823181</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1544747611.866565</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3587824124.133435</v>
       </c>
     </row>
     <row r="23">
@@ -1617,7 +2483,13 @@
         <v>45689</v>
       </c>
       <c r="B23" t="n">
-        <v>3098677338.60174</v>
+        <v>3098769942.244934</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1522617082.47993</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3609954653.52007</v>
       </c>
     </row>
     <row r="24">
@@ -1625,7 +2497,13 @@
         <v>45717</v>
       </c>
       <c r="B24" t="n">
-        <v>3109731603.105824</v>
+        <v>3109826527.098207</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1500946176.167514</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3631625559.832486</v>
       </c>
     </row>
     <row r="25">
@@ -1633,7 +2511,13 @@
         <v>45748</v>
       </c>
       <c r="B25" t="n">
-        <v>3120565450.918165</v>
+        <v>3120662641.378307</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1479707392.178518</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3652864343.821483</v>
       </c>
     </row>
     <row r="26">
@@ -1641,7 +2525,13 @@
         <v>45778</v>
       </c>
       <c r="B26" t="n">
-        <v>3131191563.736166</v>
+        <v>3131290970.304194</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1458875867.48378</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3673695868.51622</v>
       </c>
     </row>
     <row r="27">
@@ -1649,7 +2539,13 @@
         <v>45809</v>
       </c>
       <c r="B27" t="n">
-        <v>3141621451.907677</v>
+        <v>3141723027.382501</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1438429035.610298</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3694142700.389702</v>
       </c>
     </row>
     <row r="28">
@@ -1657,7 +2553,13 @@
         <v>45839</v>
       </c>
       <c r="B28" t="n">
-        <v>3151865600.526334</v>
+        <v>3151969300.55263</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1418346340.196845</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3714225395.803155</v>
       </c>
     </row>
     <row r="29">
@@ -1665,7 +2567,13 @@
         <v>45870</v>
       </c>
       <c r="B29" t="n">
-        <v>3161933592.901925</v>
+        <v>3162039375.698495</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1398608992.91095</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3733962743.08905</v>
       </c>
     </row>
     <row r="30">
@@ -1673,7 +2581,13 @@
         <v>45901</v>
       </c>
       <c r="B30" t="n">
-        <v>3171834215.546309</v>
+        <v>3171942041.669096</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1379199767.608572</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3753371968.391428</v>
       </c>
     </row>
     <row r="31">
@@ -1681,7 +2595,13 @@
         <v>45931</v>
       </c>
       <c r="B31" t="n">
-        <v>3181575547.948632</v>
+        <v>3181685380.082939</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1360102824.317439</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3772468911.682561</v>
       </c>
     </row>
     <row r="32">
@@ -1689,7 +2609,13 @@
         <v>45962</v>
       </c>
       <c r="B32" t="n">
-        <v>3191165039.74964</v>
+        <v>3191276842.527112</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1341303557.926861</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3791268178.073139</v>
       </c>
     </row>
     <row r="33">
@@ -1697,7 +2623,13 @@
         <v>45992</v>
       </c>
       <c r="B33" t="n">
-        <v>3200609577.41164</v>
+        <v>3200723317.24837</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1322788467.473194</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3809783268.526806</v>
       </c>
     </row>
     <row r="34">
@@ -1705,7 +2637,13 @@
         <v>46023</v>
       </c>
       <c r="B34" t="n">
-        <v>3209915542.080498</v>
+        <v>3210031187.03324</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1304545042.69485</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3828026693.30515</v>
       </c>
     </row>
     <row r="35">
@@ -1713,7 +2651,13 @@
         <v>46054</v>
       </c>
       <c r="B35" t="n">
-        <v>3219088860.021478</v>
+        <v>3219206379.65945</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1286561665.147479</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3846010070.852521</v>
       </c>
     </row>
     <row r="36">
@@ -1721,7 +2665,13 @@
         <v>46082</v>
       </c>
       <c r="B36" t="n">
-        <v>3228135046.761612</v>
+        <v>3228254412.051805</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1268827521.658462</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3863744214.341538</v>
       </c>
     </row>
     <row r="37">
@@ -1729,7 +2679,13 @@
         <v>46113</v>
       </c>
       <c r="B37" t="n">
-        <v>3237059245.872621</v>
+        <v>3237180429.076848</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1251332528.289379</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3881239207.710621</v>
       </c>
     </row>
     <row r="38">
@@ -1737,7 +2693,13 @@
         <v>46143</v>
       </c>
       <c r="B38" t="n">
-        <v>3245866263.168866</v>
+        <v>3245989237.751045</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1234067263.287953</v>
+      </c>
+      <c r="D38" t="n">
+        <v>3898504472.712048</v>
       </c>
     </row>
     <row r="39">
@@ -1745,7 +2707,13 @@
         <v>46174</v>
       </c>
       <c r="B39" t="n">
-        <v>3254560596.965911</v>
+        <v>3254685337.508333</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1217022907.763667</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3915548828.236333</v>
       </c>
     </row>
     <row r="40">
@@ -1753,7 +2721,13 @@
         <v>46204</v>
       </c>
       <c r="B40" t="n">
-        <v>3263146464.940538</v>
+        <v>3263272947.06803</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1200191193.026662</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3932380542.973338</v>
       </c>
     </row>
     <row r="41">
@@ -1761,7 +2735,13 @@
         <v>46235</v>
       </c>
       <c r="B41" t="n">
-        <v>3271627828.04743</v>
+        <v>3271756028.358476</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1183564353.697388</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3949007382.302612</v>
       </c>
     </row>
     <row r="42">
@@ -1769,7 +2749,13 @@
         <v>46266</v>
       </c>
       <c r="B42" t="n">
-        <v>3280008411.877363</v>
+        <v>3280138307.881411</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1167135085.832436</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3965436650.167564</v>
       </c>
     </row>
     <row r="43">
@@ -1777,7 +2763,13 @@
         <v>46296</v>
       </c>
       <c r="B43" t="n">
-        <v>3288291725.783717</v>
+        <v>3288423295.843947</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1150896509.425863</v>
+      </c>
+      <c r="D43" t="n">
+        <v>3981675226.574137</v>
       </c>
     </row>
     <row r="44">
@@ -1785,7 +2777,13 @@
         <v>46327</v>
       </c>
       <c r="B44" t="n">
-        <v>3296481080.055809</v>
+        <v>3296614303.336802</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1134842134.739868</v>
+      </c>
+      <c r="D44" t="n">
+        <v>3997729601.260132</v>
       </c>
     </row>
     <row r="45">
@@ -1793,7 +2791,13 @@
         <v>46357</v>
       </c>
       <c r="B45" t="n">
-        <v>3304579601.377477</v>
+        <v>3304714457.797234</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1118965831.997423</v>
+      </c>
+      <c r="D45" t="n">
+        <v>4013605904.002577</v>
       </c>
     </row>
     <row r="46">
@@ -1801,7 +2805,13 @@
         <v>46388</v>
       </c>
       <c r="B46" t="n">
-        <v>3312590246.77563</v>
+        <v>3312726716.961497</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1103261804.035466</v>
+      </c>
+      <c r="D46" t="n">
+        <v>4029309931.964534</v>
       </c>
     </row>
     <row r="47">
@@ -1809,7 +2819,13 @@
         <v>46419</v>
       </c>
       <c r="B47" t="n">
-        <v>3320515816.235221</v>
+        <v>3320653881.483333</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1087724561.572668</v>
+      </c>
+      <c r="D47" t="n">
+        <v>4044847174.427332</v>
       </c>
     </row>
     <row r="48">
@@ -1817,7 +2833,13 @@
         <v>46447</v>
       </c>
       <c r="B48" t="n">
-        <v>3328358964.133258</v>
+        <v>3328498606.371131</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1072348900.792582</v>
+      </c>
+      <c r="D48" t="n">
+        <v>4060222835.207418</v>
       </c>
     </row>
     <row r="49">
@@ -1825,7 +2847,13 @@
         <v>46478</v>
       </c>
       <c r="B49" t="n">
-        <v>3336122209.624216</v>
+        <v>3336263411.3762</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1057129882.982647</v>
+      </c>
+      <c r="D49" t="n">
+        <v>4075441853.017353</v>
       </c>
     </row>
     <row r="50">
@@ -1833,7 +2861,13 @@
         <v>46508</v>
       </c>
       <c r="B50" t="n">
-        <v>3343807946.092052</v>
+        <v>3343950690.447356</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1042062816.003182</v>
+      </c>
+      <c r="D50" t="n">
+        <v>4090508919.996818</v>
       </c>
     </row>
     <row r="51">
@@ -1841,7 +2875,13 @@
         <v>46539</v>
       </c>
       <c r="B51" t="n">
-        <v>3351418449.769352</v>
+        <v>3351562720.352409</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1027143237.389278</v>
+      </c>
+      <c r="D51" t="n">
+        <v>4105428498.610722</v>
       </c>
     </row>
     <row r="52">
@@ -1849,7 +2889,13 @@
         <v>46569</v>
       </c>
       <c r="B52" t="n">
-        <v>3358955887.611588</v>
+        <v>3359101668.55454</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1012366898.913101</v>
+      </c>
+      <c r="D52" t="n">
+        <v>4120204837.086899</v>
       </c>
     </row>
     <row r="53">
@@ -1857,7 +2903,13 @@
         <v>46600</v>
       </c>
       <c r="B53" t="n">
-        <v>3366422324.503677</v>
+        <v>3366569600.4208</v>
+      </c>
+      <c r="C53" t="n">
+        <v>997729752.4552329</v>
+      </c>
+      <c r="D53" t="n">
+        <v>4134841983.544767</v>
       </c>
     </row>
     <row r="54">
@@ -1865,7 +2917,13 @@
         <v>46631</v>
       </c>
       <c r="B54" t="n">
-        <v>3373819729.866786</v>
+        <v>3373968485.830665</v>
+      </c>
+      <c r="C54" t="n">
+        <v>983227937.0518973</v>
+      </c>
+      <c r="D54" t="n">
+        <v>4149343798.948103</v>
       </c>
     </row>
     <row r="55">
@@ -1873,7 +2931,13 @@
         <v>46661</v>
       </c>
       <c r="B55" t="n">
-        <v>3381149983.725261</v>
+        <v>3381300205.244582</v>
+      </c>
+      <c r="C55" t="n">
+        <v>968857767.0006196</v>
+      </c>
+      <c r="D55" t="n">
+        <v>4163713968.99938</v>
       </c>
     </row>
     <row r="56">
@@ -1881,7 +2945,13 @@
         <v>46692</v>
       </c>
       <c r="B56" t="n">
-        <v>3388414882.28665</v>
+        <v>3388566555.285463</v>
+      </c>
+      <c r="C56" t="n">
+        <v>954615720.9204917</v>
+      </c>
+      <c r="D56" t="n">
+        <v>4177956015.079508</v>
       </c>
     </row>
     <row r="57">
@@ -1889,7 +2959,13 @@
         <v>46722</v>
       </c>
       <c r="B57" t="n">
-        <v>3395616143.081746</v>
+        <v>3395769253.880081</v>
+      </c>
+      <c r="C57" t="n">
+        <v>940498431.675041</v>
+      </c>
+      <c r="D57" t="n">
+        <v>4192073304.324959</v>
       </c>
     </row>
     <row r="58">
@@ -1897,7 +2973,13 @@
         <v>46753</v>
       </c>
       <c r="B58" t="n">
-        <v>3402755409.706325</v>
+        <v>3402909945.002038</v>
+      </c>
+      <c r="C58" t="n">
+        <v>926502677.0760045</v>
+      </c>
+      <c r="D58" t="n">
+        <v>4206069058.923995</v>
       </c>
     </row>
     <row r="59">
@@ -1905,7 +2987,13 @@
         <v>46784</v>
       </c>
       <c r="B59" t="n">
-        <v>3409834256.201658</v>
+        <v>3409990203.053425</v>
+      </c>
+      <c r="C59" t="n">
+        <v>912625371.2952867</v>
+      </c>
+      <c r="D59" t="n">
+        <v>4219946364.704713</v>
       </c>
     </row>
     <row r="60">
@@ -1913,7 +3001,13 @@
         <v>46813</v>
       </c>
       <c r="B60" t="n">
-        <v>3416854191.106875</v>
+        <v>3417011536.918231</v>
+      </c>
+      <c r="C60" t="n">
+        <v>898863556.9202671</v>
+      </c>
+      <c r="D60" t="n">
+        <v>4233708179.079733</v>
       </c>
     </row>
     <row r="61">
@@ -1921,7 +3015,13 @@
         <v>46844</v>
       </c>
       <c r="B61" t="n">
-        <v>3423816661.212738</v>
+        <v>3423975393.717087</v>
+      </c>
+      <c r="C61" t="n">
+        <v>885214397.5945101</v>
+      </c>
+      <c r="D61" t="n">
+        <v>4247357338.40549</v>
       </c>
     </row>
     <row r="62">
@@ -1929,7 +3029,13 @@
         <v>46874</v>
       </c>
       <c r="B62" t="n">
-        <v>3430723055.043277</v>
+        <v>3430883162.289793</v>
+      </c>
+      <c r="C62" t="n">
+        <v>871675171.1920063</v>
+      </c>
+      <c r="D62" t="n">
+        <v>4260896564.807994</v>
       </c>
     </row>
     <row r="63">
@@ -1937,7 +3043,13 @@
         <v>46905</v>
       </c>
       <c r="B63" t="n">
-        <v>3437574706.089023</v>
+        <v>3437736176.429379</v>
+      </c>
+      <c r="C63" t="n">
+        <v>858243263.4784172</v>
+      </c>
+      <c r="D63" t="n">
+        <v>4274328472.521583</v>
       </c>
     </row>
     <row r="64">
@@ -1945,7 +3057,13 @@
         <v>46935</v>
       </c>
       <c r="B64" t="n">
-        <v>3444372895.813158</v>
+        <v>3444535717.889022</v>
+      </c>
+      <c r="C64" t="n">
+        <v>844916162.2175174</v>
+      </c>
+      <c r="D64" t="n">
+        <v>4287655573.782483</v>
       </c>
     </row>
     <row r="65">
@@ -1953,7 +3071,13 @@
         <v>46966</v>
       </c>
       <c r="B65" t="n">
-        <v>3451118856.449781</v>
+        <v>3451283019.181019</v>
+      </c>
+      <c r="C65" t="n">
+        <v>831691451.6852036</v>
+      </c>
+      <c r="D65" t="n">
+        <v>4300880284.314796</v>
       </c>
     </row>
     <row r="66">
@@ -1961,7 +3085,13 @@
         <v>46997</v>
       </c>
       <c r="B66" t="n">
-        <v>3457813773.611595</v>
+        <v>3457979266.185132</v>
+      </c>
+      <c r="C66" t="n">
+        <v>818566807.5571418</v>
+      </c>
+      <c r="D66" t="n">
+        <v>4314004928.442858</v>
       </c>
     </row>
     <row r="67">
@@ -1969,7 +3099,13 @@
         <v>47027</v>
       </c>
       <c r="B67" t="n">
-        <v>3464458788.722631</v>
+        <v>3464625600.581932</v>
+      </c>
+      <c r="C67" t="n">
+        <v>805539992.1394131</v>
+      </c>
+      <c r="D67" t="n">
+        <v>4327031743.860587</v>
       </c>
     </row>
     <row r="68">
@@ -1977,7 +3113,13 @@
         <v>47058</v>
       </c>
       <c r="B68" t="n">
-        <v>3471055001.290172</v>
+        <v>3471223122.125283</v>
+      </c>
+      <c r="C68" t="n">
+        <v>792608849.9144459</v>
+      </c>
+      <c r="D68" t="n">
+        <v>4339962886.085554</v>
       </c>
     </row>
     <row r="69">
@@ -1985,7 +3127,13 @@
         <v>47088</v>
       </c>
       <c r="B69" t="n">
-        <v>3477603471.028645</v>
+        <v>3477772890.766773</v>
+      </c>
+      <c r="C69" t="n">
+        <v>779771303.3771245</v>
+      </c>
+      <c r="D69" t="n">
+        <v>4352800432.622875</v>
       </c>
     </row>
     <row r="70">
@@ -1993,7 +3141,13 @@
         <v>47119</v>
       </c>
       <c r="B70" t="n">
-        <v>3484105219.847138</v>
+        <v>3484275928.643723</v>
+      </c>
+      <c r="C70" t="n">
+        <v>767025349.138304</v>
+      </c>
+      <c r="D70" t="n">
+        <v>4365546386.861696</v>
       </c>
     </row>
     <row r="71">
@@ -2001,7 +3155,13 @@
         <v>47150</v>
       </c>
       <c r="B71" t="n">
-        <v>3490561233.711067</v>
+        <v>3490733221.941313</v>
+      </c>
+      <c r="C71" t="n">
+        <v>754369054.275027</v>
+      </c>
+      <c r="D71" t="n">
+        <v>4378202681.724973</v>
       </c>
     </row>
     <row r="72">
@@ -2009,7 +3169,13 @@
         <v>47178</v>
       </c>
       <c r="B72" t="n">
-        <v>3496972464.387609</v>
+        <v>3497145722.638454</v>
+      </c>
+      <c r="C72" t="n">
+        <v>741800552.9086299</v>
+      </c>
+      <c r="D72" t="n">
+        <v>4390771183.09137</v>
       </c>
     </row>
     <row r="73">
@@ -2017,7 +3183,13 @@
         <v>47209</v>
       </c>
       <c r="B73" t="n">
-        <v>3503339831.083652</v>
+        <v>3503514350.146138</v>
+      </c>
+      <c r="C73" t="n">
+        <v>729318042.9935701</v>
+      </c>
+      <c r="D73" t="n">
+        <v>4403253693.00643</v>
       </c>
     </row>
     <row r="74">
@@ -2025,7 +3197,13 @@
         <v>47239</v>
       </c>
       <c r="B74" t="n">
-        <v>3509664221.984234</v>
+        <v>3509839992.846255</v>
+      </c>
+      <c r="C74" t="n">
+        <v>716919783.3013399</v>
+      </c>
+      <c r="D74" t="n">
+        <v>4415651952.69866</v>
       </c>
     </row>
     <row r="75">
@@ -2033,7 +3211,13 @@
         <v>47270</v>
       </c>
       <c r="B75" t="n">
-        <v>3515946495.698773</v>
+        <v>3516123509.53818</v>
+      </c>
+      <c r="C75" t="n">
+        <v>704604090.5851674</v>
+      </c>
+      <c r="D75" t="n">
+        <v>4427967645.414833</v>
       </c>
     </row>
     <row r="76">
@@ -2041,7 +3225,13 @@
         <v>47300</v>
       </c>
       <c r="B76" t="n">
-        <v>3522187482.621742</v>
+        <v>3522365730.799778</v>
+      </c>
+      <c r="C76" t="n">
+        <v>692369336.9124362</v>
+      </c>
+      <c r="D76" t="n">
+        <v>4440202399.087564</v>
       </c>
     </row>
     <row r="77">
@@ -2049,7 +3239,13 @@
         <v>47331</v>
       </c>
       <c r="B77" t="n">
-        <v>3528387986.213904</v>
+        <v>3528567460.268952</v>
+      </c>
+      <c r="C77" t="n">
+        <v>680213947.1528533</v>
+      </c>
+      <c r="D77" t="n">
+        <v>4452357788.847147</v>
       </c>
     </row>
     <row r="78">
@@ -2057,7 +3253,13 @@
         <v>47362</v>
       </c>
       <c r="B78" t="n">
-        <v>3534548784.209696</v>
+        <v>3534729475.851329</v>
+      </c>
+      <c r="C78" t="n">
+        <v>668136396.6113942</v>
+      </c>
+      <c r="D78" t="n">
+        <v>4464435339.388606</v>
       </c>
     </row>
     <row r="79">
@@ -2065,7 +3267,13 @@
         <v>47392</v>
       </c>
       <c r="B79" t="n">
-        <v>3540670629.755915</v>
+        <v>3540852530.859206</v>
+      </c>
+      <c r="C79" t="n">
+        <v>656135208.7959566</v>
+      </c>
+      <c r="D79" t="n">
+        <v>4476436527.204043</v>
       </c>
     </row>
     <row r="80">
@@ -2073,7 +3281,13 @@
         <v>47423</v>
       </c>
       <c r="B80" t="n">
-        <v>3546754252.486392</v>
+        <v>3546937355.086497</v>
+      </c>
+      <c r="C80" t="n">
+        <v>644208953.3104658</v>
+      </c>
+      <c r="D80" t="n">
+        <v>4488362782.689534</v>
       </c>
     </row>
     <row r="81">
@@ -2081,7 +3295,13 @@
         <v>47453</v>
       </c>
       <c r="B81" t="n">
-        <v>3552800359.537039</v>
+        <v>3552984655.824018</v>
+      </c>
+      <c r="C81" t="n">
+        <v>632356243.864924</v>
+      </c>
+      <c r="D81" t="n">
+        <v>4500215492.135077</v>
       </c>
     </row>
     <row r="82">
@@ -2089,7 +3309,13 @@
         <v>47484</v>
       </c>
       <c r="B82" t="n">
-        <v>3558809636.505223</v>
+        <v>3558995118.819099</v>
+      </c>
+      <c r="C82" t="n">
+        <v>620575736.3945663</v>
+      </c>
+      <c r="D82" t="n">
+        <v>4511995999.605433</v>
       </c>
     </row>
     <row r="83">
@@ -2097,7 +3323,13 @@
         <v>47515</v>
       </c>
       <c r="B83" t="n">
-        <v>3564782748.357187</v>
+        <v>3564969409.183215</v>
+      </c>
+      <c r="C83" t="n">
+        <v>608866127.2808993</v>
+      </c>
+      <c r="D83" t="n">
+        <v>4523705608.719101</v>
       </c>
     </row>
     <row r="84">
@@ -2105,7 +3337,13 @@
         <v>47543</v>
       </c>
       <c r="B84" t="n">
-        <v>3570720340.286898</v>
+        <v>3570908172.251043</v>
+      </c>
+      <c r="C84" t="n">
+        <v>597226151.6679559</v>
+      </c>
+      <c r="D84" t="n">
+        <v>4535345584.332045</v>
       </c>
     </row>
     <row r="85">
@@ -2113,7 +3351,13 @@
         <v>47574</v>
       </c>
       <c r="B85" t="n">
-        <v>3576623038.529465</v>
+        <v>3576812034.394074</v>
+      </c>
+      <c r="C85" t="n">
+        <v>585654581.8676143</v>
+      </c>
+      <c r="D85" t="n">
+        <v>4546917154.132385</v>
       </c>
     </row>
     <row r="86">
@@ -2121,7 +3365,13 @@
         <v>47604</v>
       </c>
       <c r="B86" t="n">
-        <v>3582491451.132031</v>
+        <v>3582681603.791691</v>
+      </c>
+      <c r="C86" t="n">
+        <v>574150225.8482847</v>
+      </c>
+      <c r="D86" t="n">
+        <v>4558421510.151715</v>
       </c>
     </row>
     <row r="87">
@@ -2129,7 +3379,13 @@
         <v>47635</v>
       </c>
       <c r="B87" t="n">
-        <v>3588326168.684829</v>
+        <v>3588517471.162396</v>
+      </c>
+      <c r="C87" t="n">
+        <v>562711925.801703</v>
+      </c>
+      <c r="D87" t="n">
+        <v>4569859810.198298</v>
       </c>
     </row>
     <row r="88">
@@ -2137,7 +3393,13 @@
         <v>47665</v>
       </c>
       <c r="B88" t="n">
-        <v>3594127765.014887</v>
+        <v>3594320210.457679</v>
+      </c>
+      <c r="C88" t="n">
+        <v>551338556.7829492</v>
+      </c>
+      <c r="D88" t="n">
+        <v>4581233179.217051</v>
       </c>
     </row>
     <row r="89">
@@ -2145,7 +3407,13 @@
         <v>47696</v>
       </c>
       <c r="B89" t="n">
-        <v>3599896797.844682</v>
+        <v>3600090379.52083</v>
+      </c>
+      <c r="C89" t="n">
+        <v>540029025.4191732</v>
+      </c>
+      <c r="D89" t="n">
+        <v>4592542710.580827</v>
       </c>
     </row>
     <row r="90">
@@ -2153,7 +3421,13 @@
         <v>47727</v>
       </c>
       <c r="B90" t="n">
-        <v>3605633809.417894</v>
+        <v>3605828520.712842</v>
+      </c>
+      <c r="C90" t="n">
+        <v>528782268.6828308</v>
+      </c>
+      <c r="D90" t="n">
+        <v>4603789467.317169</v>
       </c>
     </row>
     <row r="91">
@@ -2161,7 +3435,13 @@
         <v>47757</v>
       </c>
       <c r="B91" t="n">
-        <v>3611339327.094241</v>
+        <v>3611535161.507382</v>
+      </c>
+      <c r="C91" t="n">
+        <v>517597252.7255318</v>
+      </c>
+      <c r="D91" t="n">
+        <v>4614974483.274468</v>
       </c>
     </row>
     <row r="92">
@@ -2169,7 +3449,13 @@
         <v>47788</v>
       </c>
       <c r="B92" t="n">
-        <v>3617013863.915244</v>
+        <v>3617210815.056692</v>
+      </c>
+      <c r="C92" t="n">
+        <v>506472971.7688844</v>
+      </c>
+      <c r="D92" t="n">
+        <v>4626098764.231115</v>
       </c>
     </row>
     <row r="93">
@@ -2177,7 +3463,13 @@
         <v>47818</v>
       </c>
       <c r="B93" t="n">
-        <v>3622657919.142632</v>
+        <v>3622855980.730121</v>
+      </c>
+      <c r="C93" t="n">
+        <v>495408447.048964</v>
+      </c>
+      <c r="D93" t="n">
+        <v>4637163288.951036</v>
       </c>
     </row>
     <row r="94">
@@ -2185,7 +3477,13 @@
         <v>47849</v>
       </c>
       <c r="B94" t="n">
-        <v>3628271978.771001</v>
+        <v>3628471144.626902</v>
+      </c>
+      <c r="C94" t="n">
+        <v>484402725.8112719</v>
+      </c>
+      <c r="D94" t="n">
+        <v>4648169010.188728</v>
       </c>
     </row>
     <row r="95">
@@ -2193,7 +3491,13 @@
         <v>47880</v>
       </c>
       <c r="B95" t="n">
-        <v>3633856516.016206</v>
+        <v>3634056780.064661</v>
+      </c>
+      <c r="C95" t="n">
+        <v>473454880.3532641</v>
+      </c>
+      <c r="D95" t="n">
+        <v>4659116855.646736</v>
       </c>
     </row>
     <row r="96">
@@ -2201,7 +3505,13 @@
         <v>47908</v>
       </c>
       <c r="B96" t="n">
-        <v>3639411991.780876</v>
+        <v>3639613348.045036</v>
+      </c>
+      <c r="C96" t="n">
+        <v>462564007.1117291</v>
+      </c>
+      <c r="D96" t="n">
+        <v>4670007728.888271</v>
       </c>
     </row>
     <row r="97">
@@ -2209,7 +3519,13 @@
         <v>47939</v>
       </c>
       <c r="B97" t="n">
-        <v>3644938855.09835</v>
+        <v>3645141297.697722</v>
+      </c>
+      <c r="C97" t="n">
+        <v>451729225.7924647</v>
+      </c>
+      <c r="D97" t="n">
+        <v>4680842510.207535</v>
       </c>
     </row>
     <row r="98">
@@ -2217,7 +3533,13 @@
         <v>47969</v>
       </c>
       <c r="B98" t="n">
-        <v>3650437543.556247</v>
+        <v>3650641066.704136</v>
+      </c>
+      <c r="C98" t="n">
+        <v>440949678.5398939</v>
+      </c>
+      <c r="D98" t="n">
+        <v>4691622057.460106</v>
       </c>
     </row>
     <row r="99">
@@ -2225,7 +3547,13 @@
         <v>48000</v>
       </c>
       <c r="B99" t="n">
-        <v>3655908483.700796</v>
+        <v>3656113081.701839</v>
+      </c>
+      <c r="C99" t="n">
+        <v>430224529.1443942</v>
+      </c>
+      <c r="D99" t="n">
+        <v>4702347206.855606</v>
       </c>
     </row>
     <row r="100">
@@ -2233,7 +3561,13 @@
         <v>48030</v>
       </c>
       <c r="B100" t="n">
-        <v>3661352091.422981</v>
+        <v>3661557758.67078</v>
+      </c>
+      <c r="C100" t="n">
+        <v>419552962.2852716</v>
+      </c>
+      <c r="D100" t="n">
+        <v>4713018773.714728</v>
       </c>
     </row>
     <row r="101">
@@ -2241,7 +3575,13 @@
         <v>48061</v>
       </c>
       <c r="B101" t="n">
-        <v>3666768772.327503</v>
+        <v>3666975503.302329</v>
+      </c>
+      <c r="C101" t="n">
+        <v>408934182.807435</v>
+      </c>
+      <c r="D101" t="n">
+        <v>4723637553.192565</v>
       </c>
     </row>
     <row r="102">
@@ -2249,7 +3589,13 @@
         <v>48092</v>
       </c>
       <c r="B102" t="n">
-        <v>3672158922.085469</v>
+        <v>3672366711.352059</v>
+      </c>
+      <c r="C102" t="n">
+        <v>398367415.029963</v>
+      </c>
+      <c r="D102" t="n">
+        <v>4734204320.970037</v>
       </c>
     </row>
     <row r="103">
@@ -2257,7 +3603,13 @@
         <v>48122</v>
       </c>
       <c r="B103" t="n">
-        <v>3677522926.771686</v>
+        <v>3677731768.977116</v>
+      </c>
+      <c r="C103" t="n">
+        <v>387851902.0848532</v>
+      </c>
+      <c r="D103" t="n">
+        <v>4744719833.915147</v>
       </c>
     </row>
     <row r="104">
@@ -2265,7 +3617,13 @@
         <v>48153</v>
       </c>
       <c r="B104" t="n">
-        <v>3682861163.187375</v>
+        <v>3683071053.058999</v>
+      </c>
+      <c r="C104" t="n">
+        <v>377386905.2843628</v>
+      </c>
+      <c r="D104" t="n">
+        <v>4755184830.715637</v>
       </c>
     </row>
     <row r="105">
@@ -2273,7 +3631,13 @@
         <v>48183</v>
       </c>
       <c r="B105" t="n">
-        <v>3688173999.169057</v>
+        <v>3688384931.512527</v>
+      </c>
+      <c r="C105" t="n">
+        <v>366971703.5154462</v>
+      </c>
+      <c r="D105" t="n">
+        <v>4765600032.484554</v>
       </c>
     </row>
     <row r="106">
@@ -2281,7 +3645,13 @@
         <v>48214</v>
       </c>
       <c r="B106" t="n">
-        <v>3693461793.884343</v>
+        <v>3693673763.581694</v>
+      </c>
+      <c r="C106" t="n">
+        <v>356605592.6598802</v>
+      </c>
+      <c r="D106" t="n">
+        <v>4775966143.34012</v>
       </c>
     </row>
     <row r="107">
@@ -2289,7 +3659,13 @@
         <v>48245</v>
       </c>
       <c r="B107" t="n">
-        <v>3698724898.115287</v>
+        <v>3698937900.123083</v>
+      </c>
+      <c r="C107" t="n">
+        <v>346287885.0387573</v>
+      </c>
+      <c r="D107" t="n">
+        <v>4786283850.961243</v>
       </c>
     </row>
     <row r="108">
@@ -2297,7 +3673,13 @@
         <v>48274</v>
       </c>
       <c r="B108" t="n">
-        <v>3703963654.529946</v>
+        <v>3704177683.877493</v>
+      </c>
+      <c r="C108" t="n">
+        <v>336017908.8801131</v>
+      </c>
+      <c r="D108" t="n">
+        <v>4796553827.119886</v>
       </c>
     </row>
     <row r="109">
@@ -2305,7 +3687,13 @@
         <v>48305</v>
       </c>
       <c r="B109" t="n">
-        <v>3709178397.942733</v>
+        <v>3709393449.73035</v>
+      </c>
+      <c r="C109" t="n">
+        <v>325795007.8085141</v>
+      </c>
+      <c r="D109" t="n">
+        <v>4806776728.191486</v>
       </c>
     </row>
     <row r="110">
@@ -2313,7 +3701,13 @@
         <v>48335</v>
       </c>
       <c r="B110" t="n">
-        <v>3714369455.564132</v>
+        <v>3714585524.961473</v>
+      </c>
+      <c r="C110" t="n">
+        <v>315618540.3555121</v>
+      </c>
+      <c r="D110" t="n">
+        <v>4816953195.644487</v>
       </c>
     </row>
     <row r="111">
@@ -2321,7 +3715,13 @@
         <v>48366</v>
       </c>
       <c r="B111" t="n">
-        <v>3719537147.240285</v>
+        <v>3719754229.48473</v>
+      </c>
+      <c r="C111" t="n">
+        <v>305487879.4899297</v>
+      </c>
+      <c r="D111" t="n">
+        <v>4827083856.510071</v>
       </c>
     </row>
     <row r="112">
@@ -2329,7 +3729,13 @@
         <v>48396</v>
       </c>
       <c r="B112" t="n">
-        <v>3724681785.682974</v>
+        <v>3724899876.078055</v>
+      </c>
+      <c r="C112" t="n">
+        <v>295402412.1670113</v>
+      </c>
+      <c r="D112" t="n">
+        <v>4837169323.832989</v>
       </c>
     </row>
     <row r="113">
@@ -2337,7 +3743,13 @@
         <v>48427</v>
       </c>
       <c r="B113" t="n">
-        <v>3729803676.690441</v>
+        <v>3730022770.604332</v>
+      </c>
+      <c r="C113" t="n">
+        <v>285361538.8955083</v>
+      </c>
+      <c r="D113" t="n">
+        <v>4847210197.104492</v>
       </c>
     </row>
     <row r="114">
@@ -2345,7 +3757,13 @@
         <v>48458</v>
       </c>
       <c r="B114" t="n">
-        <v>3734903119.359499</v>
+        <v>3735123212.223547</v>
+      </c>
+      <c r="C114" t="n">
+        <v>275364673.3218474</v>
+      </c>
+      <c r="D114" t="n">
+        <v>4857207062.678152</v>
       </c>
     </row>
     <row r="115">
@@ -2353,7 +3771,13 @@
         <v>48488</v>
       </c>
       <c r="B115" t="n">
-        <v>3739980406.289352</v>
+        <v>3740201493.596654</v>
+      </c>
+      <c r="C115" t="n">
+        <v>265411241.8305578</v>
+      </c>
+      <c r="D115" t="n">
+        <v>4867160494.169442</v>
       </c>
     </row>
     <row r="116">
@@ -2361,7 +3785,13 @@
         <v>48519</v>
       </c>
       <c r="B116" t="n">
-        <v>3745035823.77751</v>
+        <v>3745257901.081537</v>
+      </c>
+      <c r="C116" t="n">
+        <v>255500683.1601868</v>
+      </c>
+      <c r="D116" t="n">
+        <v>4877071052.839813</v>
       </c>
     </row>
     <row r="117">
@@ -2369,7 +3799,13 @@
         <v>48549</v>
       </c>
       <c r="B117" t="n">
-        <v>3750069652.008173</v>
+        <v>3750292714.921437</v>
+      </c>
+      <c r="C117" t="n">
+        <v>245632448.0339837</v>
+      </c>
+      <c r="D117" t="n">
+        <v>4886939287.966017</v>
       </c>
     </row>
     <row r="118">
@@ -2377,7 +3813,13 @@
         <v>48580</v>
       </c>
       <c r="B118" t="n">
-        <v>3755082165.233438</v>
+        <v>3755306209.426198</v>
+      </c>
+      <c r="C118" t="n">
+        <v>235805998.8046522</v>
+      </c>
+      <c r="D118" t="n">
+        <v>4896765737.195348</v>
       </c>
     </row>
     <row r="119">
@@ -2385,7 +3827,13 @@
         <v>48611</v>
       </c>
       <c r="B119" t="n">
-        <v>3760073631.947662</v>
+        <v>3760298653.146667</v>
+      </c>
+      <c r="C119" t="n">
+        <v>226020809.1125326</v>
+      </c>
+      <c r="D119" t="n">
+        <v>4906550926.887467</v>
       </c>
     </row>
     <row r="120">
@@ -2393,7 +3841,13 @@
         <v>48639</v>
       </c>
       <c r="B120" t="n">
-        <v>3765044315.055279</v>
+        <v>3765270309.042556</v>
+      </c>
+      <c r="C120" t="n">
+        <v>216276363.5565901</v>
+      </c>
+      <c r="D120" t="n">
+        <v>4916295372.44341</v>
       </c>
     </row>
     <row r="121">
@@ -2401,7 +3855,13 @@
         <v>48670</v>
       </c>
       <c r="B121" t="n">
-        <v>3769994472.032392</v>
+        <v>3770221434.644063</v>
+      </c>
+      <c r="C121" t="n">
+        <v>206572157.3776374</v>
+      </c>
+      <c r="D121" t="n">
+        <v>4925999578.622362</v>
       </c>
     </row>
   </sheetData>
@@ -2415,7 +3875,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B121"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2434,13 +3894,29 @@
           <t>Pronóstico</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Inferior 95</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Superior 95</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>45047</v>
       </c>
       <c r="B2" t="n">
-        <v>2765469413.752681</v>
+        <v>2765478638.002427</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2175868038.795243</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2956703697.204757</v>
       </c>
     </row>
     <row r="3">
@@ -2448,7 +3924,13 @@
         <v>45078</v>
       </c>
       <c r="B3" t="n">
-        <v>2787007459.776956</v>
+        <v>2787012921.930496</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2133660842.296229</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2998910893.703772</v>
       </c>
     </row>
     <row r="4">
@@ -2456,7 +3938,13 @@
         <v>45108</v>
       </c>
       <c r="B4" t="n">
-        <v>2806623042.10019</v>
+        <v>2806625429.979362</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2095220326.520449</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3037351409.479551</v>
       </c>
     </row>
     <row r="5">
@@ -2464,7 +3952,13 @@
         <v>45139</v>
       </c>
       <c r="B5" t="n">
-        <v>2824754228.602118</v>
+        <v>2824754004.852549</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2059688319.769004</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3072883416.230996</v>
       </c>
     </row>
     <row r="6">
@@ -2472,7 +3966,13 @@
         <v>45170</v>
       </c>
       <c r="B6" t="n">
-        <v>2841694345.738428</v>
+        <v>2841691841.943238</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2026490159.071253</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3106081576.928747</v>
       </c>
     </row>
     <row r="7">
@@ -2480,7 +3980,13 @@
         <v>45200</v>
       </c>
       <c r="B7" t="n">
-        <v>2857651215.61021</v>
+        <v>2857646680.73778</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1995218675.033952</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3137353060.966048</v>
       </c>
     </row>
     <row r="8">
@@ -2488,7 +3994,13 @@
         <v>45231</v>
       </c>
       <c r="B8" t="n">
-        <v>2872778448.604831</v>
+        <v>2872772076.359879</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1965572899.614637</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3166998836.385363</v>
       </c>
     </row>
     <row r="9">
@@ -2496,7 +4008,13 @@
         <v>45261</v>
       </c>
       <c r="B9" t="n">
-        <v>2887193390.728229</v>
+        <v>2887185336.105528</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1937322910.513165</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3195248825.486835</v>
       </c>
     </row>
     <row r="10">
@@ -2504,7 +4022,13 @@
         <v>45292</v>
       </c>
       <c r="B10" t="n">
-        <v>2900988085.3833</v>
+        <v>2900978475.247317</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1910288357.795259</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3222283378.204741</v>
       </c>
     </row>
     <row r="11">
@@ -2512,7 +4036,13 @@
         <v>45323</v>
       </c>
       <c r="B11" t="n">
-        <v>2914236310.590604</v>
+        <v>2914225250.740158</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1884324677.82929</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3248247058.17071</v>
       </c>
     </row>
     <row r="12">
@@ -2520,7 +4050,13 @@
         <v>45352</v>
       </c>
       <c r="B12" t="n">
-        <v>2926998283.473415</v>
+        <v>2926985863.532572</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1859313876.756159</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3273257859.243841</v>
       </c>
     </row>
     <row r="13">
@@ -2528,7 +4064,13 @@
         <v>45383</v>
       </c>
       <c r="B13" t="n">
-        <v>2939323912.781365</v>
+        <v>2939310209.689377</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1835158158.288821</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3297413577.711179</v>
       </c>
     </row>
     <row r="14">
@@ -2536,7 +4078,13 @@
         <v>45413</v>
       </c>
       <c r="B14" t="n">
-        <v>2951255112.267528</v>
+        <v>2951240192.833984</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1811775391.325392</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3320796344.674608</v>
       </c>
     </row>
     <row r="15">
@@ -2544,7 +4092,13 @@
         <v>45444</v>
       </c>
       <c r="B15" t="n">
-        <v>2962827486.508686</v>
+        <v>2962811409.326134</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1789095807.000777</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3343475928.999223</v>
       </c>
     </row>
     <row r="16">
@@ -2552,7 +4106,13 @@
         <v>45474</v>
       </c>
       <c r="B16" t="n">
-        <v>2974071585.487794</v>
+        <v>2974054402.391239</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1767059540.593172</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3365512195.406828</v>
       </c>
     </row>
     <row r="17">
@@ -2560,7 +4120,13 @@
         <v>45505</v>
       </c>
       <c r="B17" t="n">
-        <v>2985013855.558213</v>
+        <v>2984995612.757838</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1745614768.274637</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3386956967.725363</v>
       </c>
     </row>
     <row r="18">
@@ -2568,7 +4134,13 @@
         <v>45536</v>
       </c>
       <c r="B18" t="n">
-        <v>2995677372.040354</v>
+        <v>2995658111.013878</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1724716271.692799</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3407855464.307201</v>
       </c>
     </row>
     <row r="19">
@@ -2576,7 +4148,13 @@
         <v>45566</v>
       </c>
       <c r="B19" t="n">
-        <v>3006082411.778476</v>
+        <v>3006062169.983593</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1704324316.112159</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3428247419.887841</v>
       </c>
     </row>
     <row r="20">
@@ -2584,7 +4162,13 @@
         <v>45597</v>
       </c>
       <c r="B20" t="n">
-        <v>3016246906.421014</v>
+        <v>3016225717.871023</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1684403762.252795</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3448167973.747205</v>
       </c>
     </row>
     <row r="21">
@@ -2592,7 +4176,13 @@
         <v>45627</v>
       </c>
       <c r="B21" t="n">
-        <v>3026186805.457527</v>
+        <v>3026164701.191476</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1664923354.944706</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3467648381.055294</v>
       </c>
     </row>
     <row r="22">
@@ -2600,7 +4190,13 @@
         <v>45658</v>
       </c>
       <c r="B22" t="n">
-        <v>3035916370.045679</v>
+        <v>3035893378.516121</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1645855147.388403</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3486716588.611597</v>
       </c>
     </row>
     <row r="23">
@@ -2608,7 +4204,13 @@
         <v>45689</v>
       </c>
       <c r="B23" t="n">
-        <v>3045448413.1024</v>
+        <v>3045424560.498053</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1627174030.703817</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3505397705.296183</v>
       </c>
     </row>
     <row r="24">
@@ -2616,7 +4218,13 @@
         <v>45717</v>
       </c>
       <c r="B24" t="n">
-        <v>3054794497.203531</v>
+        <v>3054769807.719965</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1608857346.14887</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3523714389.85113</v>
       </c>
     </row>
     <row r="25">
@@ -2624,7 +4232,13 @@
         <v>45748</v>
       </c>
       <c r="B25" t="n">
-        <v>3063965099.014904</v>
+        <v>3063939595.083333</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1590884562.916667</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3541687173.083333</v>
       </c>
     </row>
     <row r="26">
@@ -2632,7 +4246,13 @@
         <v>45778</v>
       </c>
       <c r="B26" t="n">
-        <v>3072969746.923366</v>
+        <v>3072943449.405358</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1573237008.445498</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3559334727.554502</v>
       </c>
     </row>
     <row r="27">
@@ -2640,7 +4260,13 @@
         <v>45809</v>
       </c>
       <c r="B27" t="n">
-        <v>3081817137.020648</v>
+        <v>3081790065.374882</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1555897641.145231</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3576674094.854769</v>
       </c>
     </row>
     <row r="28">
@@ -2648,7 +4274,13 @@
         <v>45839</v>
       </c>
       <c r="B28" t="n">
-        <v>3090515231.461473</v>
+        <v>3090487403.887406</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1538850857.660684</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3593720878.339316</v>
       </c>
     </row>
     <row r="29">
@@ -2656,7 +4288,13 @@
         <v>45870</v>
       </c>
       <c r="B29" t="n">
-        <v>3099071342.363155</v>
+        <v>3099042775.925472</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1522082328.466074</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3610489407.533926</v>
       </c>
     </row>
     <row r="30">
@@ -2664,7 +4302,13 @@
         <v>45901</v>
       </c>
       <c r="B30" t="n">
-        <v>3107492203.762519</v>
+        <v>3107462914.499484</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1505578856.861012</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3626992879.138988</v>
       </c>
     </row>
     <row r="31">
@@ -2672,7 +4316,13 @@
         <v>45931</v>
       </c>
       <c r="B31" t="n">
-        <v>3115784033.64442</v>
+        <v>3115754036.662661</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1489328257.421185</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3643243478.578815</v>
       </c>
     </row>
     <row r="32">
@@ -2680,7 +4330,13 @@
         <v>45962</v>
       </c>
       <c r="B32" t="n">
-        <v>3123952587.666543</v>
+        <v>3123921897.224343</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1473319250.720288</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3659252485.279713</v>
       </c>
     </row>
     <row r="33">
@@ -2688,7 +4344,13 @@
         <v>45992</v>
       </c>
       <c r="B33" t="n">
-        <v>3132003205.900008</v>
+        <v>3131971835.480798</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1457541371.737636</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3675030364.262364</v>
       </c>
     </row>
     <row r="34">
@@ -2696,7 +4358,13 @@
         <v>46023</v>
       </c>
       <c r="B34" t="n">
-        <v>3139940853.664441</v>
+        <v>3139908816.0419</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1441984889.837876</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3690586846.162124</v>
       </c>
     </row>
     <row r="35">
@@ -2704,7 +4372,13 @@
         <v>46054</v>
       </c>
       <c r="B35" t="n">
-        <v>3147770157.344638</v>
+        <v>3147737464.640575</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1426640738.584472</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3705930997.415528</v>
       </c>
     </row>
     <row r="36">
@@ -2712,7 +4386,13 @@
         <v>46082</v>
       </c>
       <c r="B36" t="n">
-        <v>3155495435.922633</v>
+        <v>3155462099.658634</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1411500453.949077</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3721071282.050922</v>
       </c>
     </row>
     <row r="37">
@@ -2720,7 +4400,13 @@
         <v>46113</v>
       </c>
       <c r="B37" t="n">
-        <v>3163120728.835461</v>
+        <v>3163086759.979111</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1396556119.720943</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3736015616.279057</v>
       </c>
     </row>
     <row r="38">
@@ -2728,7 +4414,13 @@
         <v>46143</v>
       </c>
       <c r="B38" t="n">
-        <v>3170649820.668722</v>
+        <v>3170615229.675118</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1381800319.116768</v>
+      </c>
+      <c r="D38" t="n">
+        <v>3750771416.883232</v>
       </c>
     </row>
     <row r="39">
@@ -2736,7 +4428,13 @@
         <v>46174</v>
       </c>
       <c r="B39" t="n">
-        <v>3178086263.114459</v>
+        <v>3178051059.963591</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1367226091.751361</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3765345644.248639</v>
       </c>
     </row>
     <row r="40">
@@ -2744,7 +4442,13 @@
         <v>46204</v>
       </c>
       <c r="B40" t="n">
-        <v>3185433394.554878</v>
+        <v>3185397588.785387</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1352826895.260641</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3779744840.739359</v>
       </c>
     </row>
     <row r="41">
@@ -2752,7 +4456,13 @@
         <v>46235</v>
       </c>
       <c r="B41" t="n">
-        <v>3192694357.578333</v>
+        <v>3192657958.318077</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1338596570.97657</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3793975165.02343</v>
       </c>
     </row>
     <row r="42">
@@ -2760,7 +4470,13 @@
         <v>46266</v>
       </c>
       <c r="B42" t="n">
-        <v>3199872114.688297</v>
+        <v>3199835130.682098</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1324529313.143088</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3808042422.856912</v>
       </c>
     </row>
     <row r="43">
@@ -2768,7 +4484,13 @@
         <v>46296</v>
       </c>
       <c r="B43" t="n">
-        <v>3206969462.428083</v>
+        <v>3206931902.062979</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1310619641.236562</v>
+      </c>
+      <c r="D43" t="n">
+        <v>3821952094.763438</v>
       </c>
     </row>
     <row r="44">
@@ -2776,7 +4498,13 @@
         <v>46327</v>
       </c>
       <c r="B44" t="n">
-        <v>3213989044.112318</v>
+        <v>3213950915.440586</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1296862375.016451</v>
+      </c>
+      <c r="D44" t="n">
+        <v>3835709360.983549</v>
       </c>
     </row>
     <row r="45">
@@ -2784,7 +4512,13 @@
         <v>46357</v>
       </c>
       <c r="B45" t="n">
-        <v>3220933361.329538</v>
+        <v>3220894672.089748</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1283252611.984094</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3849319124.015906</v>
       </c>
     </row>
     <row r="46">
@@ -2792,7 +4526,13 @@
         <v>46388</v>
       </c>
       <c r="B46" t="n">
-        <v>3227804784.357862</v>
+        <v>3227765541.994147</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1269785706.971472</v>
+      </c>
+      <c r="D46" t="n">
+        <v>3862786029.028528</v>
       </c>
     </row>
     <row r="47">
@@ -2800,7 +4540,13 @@
         <v>46419</v>
       </c>
       <c r="B47" t="n">
-        <v>3234605561.616673</v>
+        <v>3234565773.296423</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1256457253.61901</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3876114482.38099</v>
       </c>
     </row>
     <row r="48">
@@ -2808,7 +4554,13 @@
         <v>46447</v>
       </c>
       <c r="B48" t="n">
-        <v>3241337828.261176</v>
+        <v>3241297500.891308</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1243263067.533037</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3889308668.466963</v>
       </c>
     </row>
     <row r="49">
@@ -2816,7 +4568,13 @@
         <v>46478</v>
       </c>
       <c r="B49" t="n">
-        <v>3248003614.012966</v>
+        <v>3247962754.254905</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1230199170.940387</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3902372565.059613</v>
       </c>
     </row>
     <row r="50">
@@ -2824,7 +4582,13 @@
         <v>46508</v>
       </c>
       <c r="B50" t="n">
-        <v>3254604850.307992</v>
+        <v>3254563464.591503</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1217261778.680655</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3915309957.319345</v>
       </c>
     </row>
     <row r="51">
@@ -2832,7 +4596,13 @@
         <v>46539</v>
       </c>
       <c r="B51" t="n">
-        <v>3261143376.83328</v>
+        <v>3261101471.369245</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1204447285.396279</v>
+      </c>
+      <c r="D51" t="n">
+        <v>3928124450.603721</v>
       </c>
     </row>
     <row r="52">
@@ -2840,7 +4610,13 @@
         <v>46569</v>
       </c>
       <c r="B52" t="n">
-        <v>3267620947.515093</v>
+        <v>3267578528.307351</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1191752253.797593</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3940819482.202407</v>
       </c>
     </row>
     <row r="53">
@@ -2848,7 +4624,13 @@
         <v>46600</v>
       </c>
       <c r="B53" t="n">
-        <v>3274039236.01379</v>
+        <v>3273996308.870102</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1179173403.894601</v>
+      </c>
+      <c r="D53" t="n">
+        <v>3953398332.105399</v>
       </c>
     </row>
     <row r="54">
@@ -2856,7 +4638,13 @@
         <v>46631</v>
       </c>
       <c r="B54" t="n">
-        <v>3280399840.774131</v>
+        <v>3280356411.316378</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1166707603.0999</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3965864132.9001</v>
       </c>
     </row>
     <row r="55">
@@ -2864,7 +4652,13 @@
         <v>46661</v>
       </c>
       <c r="B55" t="n">
-        <v>3286704289.674246</v>
+        <v>3286660363.347898</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1154351857.11812</v>
+      </c>
+      <c r="D55" t="n">
+        <v>3978219878.88188</v>
       </c>
     </row>
     <row r="56">
@@ -2872,7 +4666,13 @@
         <v>46692</v>
       </c>
       <c r="B56" t="n">
-        <v>3292954044.311541</v>
+        <v>3292909626.394488</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1142103301.546803</v>
+      </c>
+      <c r="D56" t="n">
+        <v>3990468434.453197</v>
       </c>
     </row>
     <row r="57">
@@ -2880,7 +4680,13 @@
         <v>46722</v>
       </c>
       <c r="B57" t="n">
-        <v>3299150503.959629</v>
+        <v>3299105599.570407</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1129959194.122002</v>
+      </c>
+      <c r="D57" t="n">
+        <v>4002612541.877998</v>
       </c>
     </row>
     <row r="58">
@@ -2888,7 +4694,13 @@
         <v>46753</v>
       </c>
       <c r="B58" t="n">
-        <v>3305295009.226621</v>
+        <v>3305249623.332098</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1117916907.549089</v>
+      </c>
+      <c r="D58" t="n">
+        <v>4014654828.450912</v>
       </c>
     </row>
     <row r="59">
@@ -2896,7 +4708,13 @@
         <v>46784</v>
       </c>
       <c r="B59" t="n">
-        <v>3311388845.441874</v>
+        <v>3311342982.86443</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1105973922.865717</v>
+      </c>
+      <c r="D59" t="n">
+        <v>4026597813.134283</v>
       </c>
     </row>
     <row r="60">
@@ -2904,7 +4722,13 @@
         <v>46813</v>
       </c>
       <c r="B60" t="n">
-        <v>3317433245.795431</v>
+        <v>3317386911.219686</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1094127823.289415</v>
+      </c>
+      <c r="D60" t="n">
+        <v>4038443912.710585</v>
       </c>
     </row>
     <row r="61">
@@ -2912,7 +4736,13 @@
         <v>46844</v>
       </c>
       <c r="B61" t="n">
-        <v>3323429394.251879</v>
+        <v>3323382592.230988</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1082376288.507263</v>
+      </c>
+      <c r="D61" t="n">
+        <v>4050195447.492737</v>
       </c>
     </row>
     <row r="62">
@@ -2920,7 +4750,13 @@
         <v>46874</v>
       </c>
       <c r="B62" t="n">
-        <v>3329378428.258109</v>
+        <v>3329331163.219678</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1070717089.369432</v>
+      </c>
+      <c r="D62" t="n">
+        <v>4061854646.630569</v>
       </c>
     </row>
     <row r="63">
@@ -2928,7 +4764,13 @@
         <v>46905</v>
       </c>
       <c r="B63" t="n">
-        <v>3335281441.262546</v>
+        <v>3335233717.514177</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1059148082.952214</v>
+      </c>
+      <c r="D63" t="n">
+        <v>4073423653.047787</v>
       </c>
     </row>
     <row r="64">
@@ -2936,7 +4778,13 @@
         <v>46935</v>
       </c>
       <c r="B64" t="n">
-        <v>3341139485.061621</v>
+        <v>3341091306.796134</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1047667207.959579</v>
+      </c>
+      <c r="D64" t="n">
+        <v>4084904528.040421</v>
       </c>
     </row>
     <row r="65">
@@ -2944,7 +4792,13 @@
         <v>46966</v>
       </c>
       <c r="B65" t="n">
-        <v>3346953571.987767</v>
+        <v>3346904943.288108</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1036272480.435308</v>
+      </c>
+      <c r="D65" t="n">
+        <v>4096299255.564692</v>
       </c>
     </row>
     <row r="66">
@@ -2952,7 +4806,13 @@
         <v>46997</v>
       </c>
       <c r="B66" t="n">
-        <v>3352724676.951819</v>
+        <v>3352675601.795688</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1024961989.760452</v>
+      </c>
+      <c r="D66" t="n">
+        <v>4107609746.239548</v>
       </c>
     </row>
     <row r="67">
@@ -2960,7 +4820,13 @@
         <v>47027</v>
       </c>
       <c r="B67" t="n">
-        <v>3358453739.35149</v>
+        <v>3358404221.615698</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1013733894.913231</v>
+      </c>
+      <c r="D67" t="n">
+        <v>4118837841.086769</v>
       </c>
     </row>
     <row r="68">
@@ -2968,7 +4834,13 @@
         <v>47058</v>
       </c>
       <c r="B68" t="n">
-        <v>3364141664.856496</v>
+        <v>3364091708.321087</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1002586420.970669</v>
+      </c>
+      <c r="D68" t="n">
+        <v>4129985315.029331</v>
       </c>
     </row>
     <row r="69">
@@ -2976,7 +4848,13 @@
         <v>47088</v>
       </c>
       <c r="B69" t="n">
-        <v>3369789327.079952</v>
+        <v>3369738935.432086</v>
+      </c>
+      <c r="C69" t="n">
+        <v>991517855.8331118</v>
+      </c>
+      <c r="D69" t="n">
+        <v>4141053880.166888</v>
       </c>
     </row>
     <row r="70">
@@ -2984,7 +4862,13 @@
         <v>47119</v>
       </c>
       <c r="B70" t="n">
-        <v>3375397569.14475</v>
+        <v>3375346745.98238</v>
+      </c>
+      <c r="C70" t="n">
+        <v>980526547.1545355</v>
+      </c>
+      <c r="D70" t="n">
+        <v>4152045188.845465</v>
       </c>
     </row>
     <row r="71">
@@ -2992,7 +4876,13 @@
         <v>47150</v>
       </c>
       <c r="B71" t="n">
-        <v>3380967205.152891</v>
+        <v>3380915953.988242</v>
+      </c>
+      <c r="C71" t="n">
+        <v>969610899.4630454</v>
+      </c>
+      <c r="D71" t="n">
+        <v>4162960836.536955</v>
       </c>
     </row>
     <row r="72">
@@ -3000,7 +4890,13 @@
         <v>47178</v>
       </c>
       <c r="B72" t="n">
-        <v>3386499021.565014</v>
+        <v>3386447345.827874</v>
+      </c>
+      <c r="C72" t="n">
+        <v>958769371.4573669</v>
+      </c>
+      <c r="D72" t="n">
+        <v>4173802364.542633</v>
       </c>
     </row>
     <row r="73">
@@ -3008,7 +4904,13 @@
         <v>47209</v>
       </c>
       <c r="B73" t="n">
-        <v>3391993778.49673</v>
+        <v>3391941681.537574</v>
+      </c>
+      <c r="C73" t="n">
+        <v>948000473.4663544</v>
+      </c>
+      <c r="D73" t="n">
+        <v>4184571262.533646</v>
       </c>
     </row>
     <row r="74">
@@ -3016,7 +4918,13 @@
         <v>47239</v>
       </c>
       <c r="B74" t="n">
-        <v>3397452210.937837</v>
+        <v>3397399696.030785</v>
+      </c>
+      <c r="C74" t="n">
+        <v>937302765.0596619</v>
+      </c>
+      <c r="D74" t="n">
+        <v>4195268970.940338</v>
       </c>
     </row>
     <row r="75">
@@ -3024,7 +4932,13 @@
         <v>47270</v>
       </c>
       <c r="B75" t="n">
-        <v>3402875029.899919</v>
+        <v>3402822100.245547</v>
+      </c>
+      <c r="C75" t="n">
+        <v>926674852.7987275</v>
+      </c>
+      <c r="D75" t="n">
+        <v>4205896883.201272</v>
       </c>
     </row>
     <row r="76">
@@ -3032,7 +4946,13 @@
         <v>47300</v>
       </c>
       <c r="B76" t="n">
-        <v>3408262923.497434</v>
+        <v>3408209582.225444</v>
+      </c>
+      <c r="C76" t="n">
+        <v>916115388.1181295</v>
+      </c>
+      <c r="D76" t="n">
+        <v>4216456347.88187</v>
       </c>
     </row>
     <row r="77">
@@ -3040,7 +4960,13 @@
         <v>47331</v>
       </c>
       <c r="B77" t="n">
-        <v>3413616557.966921</v>
+        <v>3413562808.138677</v>
+      </c>
+      <c r="C77" t="n">
+        <v>905623065.3281939</v>
+      </c>
+      <c r="D77" t="n">
+        <v>4226948670.671806</v>
       </c>
     </row>
     <row r="78">
@@ -3048,7 +4974,13 @@
         <v>47362</v>
       </c>
       <c r="B78" t="n">
-        <v>3418936578.628613</v>
+        <v>3418882423.239552</v>
+      </c>
+      <c r="C78" t="n">
+        <v>895196619.7304788</v>
+      </c>
+      <c r="D78" t="n">
+        <v>4237375116.269521</v>
       </c>
     </row>
     <row r="79">
@@ -3056,7 +4988,13 @@
         <v>47392</v>
       </c>
       <c r="B79" t="n">
-        <v>3424223610.794374</v>
+        <v>3424169052.776308</v>
+      </c>
+      <c r="C79" t="n">
+        <v>884834825.8384368</v>
+      </c>
+      <c r="D79" t="n">
+        <v>4247736910.161563</v>
       </c>
     </row>
     <row r="80">
@@ -3064,7 +5002,13 @@
         <v>47423</v>
       </c>
       <c r="B80" t="n">
-        <v>3429478260.625598</v>
+        <v>3429423302.848896</v>
+      </c>
+      <c r="C80" t="n">
+        <v>874536495.6961646</v>
+      </c>
+      <c r="D80" t="n">
+        <v>4258035240.303835</v>
       </c>
     </row>
     <row r="81">
@@ -3072,7 +5016,13 @@
         <v>47453</v>
       </c>
       <c r="B81" t="n">
-        <v>3434701115.944365</v>
+        <v>3434645761.220042</v>
+      </c>
+      <c r="C81" t="n">
+        <v>864300477.2887185</v>
+      </c>
+      <c r="D81" t="n">
+        <v>4268271258.711282</v>
       </c>
     </row>
     <row r="82">
@@ -3080,7 +5030,13 @@
         <v>47484</v>
       </c>
       <c r="B82" t="n">
-        <v>3439892747.000967</v>
+        <v>3439836998.082672</v>
+      </c>
+      <c r="C82" t="n">
+        <v>854125653.0379634</v>
+      </c>
+      <c r="D82" t="n">
+        <v>4278446082.962037</v>
       </c>
     </row>
     <row r="83">
@@ -3088,7 +5044,13 @@
         <v>47515</v>
       </c>
       <c r="B83" t="n">
-        <v>3445053707.200615</v>
+        <v>3444997566.786527</v>
+      </c>
+      <c r="C83" t="n">
+        <v>844010938.3784077</v>
+      </c>
+      <c r="D83" t="n">
+        <v>4288560797.621593</v>
       </c>
     </row>
     <row r="84">
@@ -3096,7 +5058,13 @@
         <v>47543</v>
       </c>
       <c r="B84" t="n">
-        <v>3450184533.791953</v>
+        <v>3450128004.526594</v>
+      </c>
+      <c r="C84" t="n">
+        <v>833955280.4078758</v>
+      </c>
+      <c r="D84" t="n">
+        <v>4298616455.592124</v>
       </c>
     </row>
     <row r="85">
@@ -3104,7 +5072,13 @@
         <v>47574</v>
       </c>
       <c r="B85" t="n">
-        <v>3455285748.519813</v>
+        <v>3455228832.995778</v>
+      </c>
+      <c r="C85" t="n">
+        <v>823957656.6082752</v>
+      </c>
+      <c r="D85" t="n">
+        <v>4308614079.391725</v>
       </c>
     </row>
     <row r="86">
@@ -3112,7 +5086,13 @@
         <v>47604</v>
       </c>
       <c r="B86" t="n">
-        <v>3460357858.244442</v>
+        <v>3460300559.004055</v>
+      </c>
+      <c r="C86" t="n">
+        <v>814017073.6320529</v>
+      </c>
+      <c r="D86" t="n">
+        <v>4318554662.367947</v>
       </c>
     </row>
     <row r="87">
@@ -3120,7 +5100,13 @@
         <v>47635</v>
       </c>
       <c r="B87" t="n">
-        <v>3465401355.529295</v>
+        <v>3465343675.066189</v>
+      </c>
+      <c r="C87" t="n">
+        <v>804132566.1502688</v>
+      </c>
+      <c r="D87" t="n">
+        <v>4328439169.849731</v>
       </c>
     </row>
     <row r="88">
@@ -3128,7 +5114,13 @@
         <v>47665</v>
       </c>
       <c r="B88" t="n">
-        <v>3470416719.199315</v>
+        <v>3470358659.959949</v>
+      </c>
+      <c r="C88" t="n">
+        <v>794303195.7585013</v>
+      </c>
+      <c r="D88" t="n">
+        <v>4338268540.241499</v>
       </c>
     </row>
     <row r="89">
@@ -3136,7 +5128,13 @@
         <v>47696</v>
       </c>
       <c r="B89" t="n">
-        <v>3475404414.871485</v>
+        <v>3475345979.256591</v>
+      </c>
+      <c r="C89" t="n">
+        <v>784528049.9370811</v>
+      </c>
+      <c r="D89" t="n">
+        <v>4348043686.062919</v>
       </c>
     </row>
     <row r="90">
@@ -3144,7 +5142,13 @@
         <v>47727</v>
       </c>
       <c r="B90" t="n">
-        <v>3480364895.459341</v>
+        <v>3480306085.825315</v>
+      </c>
+      <c r="C90" t="n">
+        <v>774806241.0623822</v>
+      </c>
+      <c r="D90" t="n">
+        <v>4357765494.937618</v>
       </c>
     </row>
     <row r="91">
@@ -3152,7 +5156,13 @@
         <v>47757</v>
       </c>
       <c r="B91" t="n">
-        <v>3485298601.652956</v>
+        <v>3485239420.313188</v>
+      </c>
+      <c r="C91" t="n">
+        <v>765136905.4661522</v>
+      </c>
+      <c r="D91" t="n">
+        <v>4367434830.533848</v>
       </c>
     </row>
     <row r="92">
@@ -3160,7 +5170,13 @@
         <v>47788</v>
       </c>
       <c r="B92" t="n">
-        <v>3490205962.375867</v>
+        <v>3490146411.602018</v>
+      </c>
+      <c r="C92" t="n">
+        <v>755519202.5400438</v>
+      </c>
+      <c r="D92" t="n">
+        <v>4377052533.459956</v>
       </c>
     </row>
     <row r="93">
@@ -3168,7 +5184,13 @@
         <v>47818</v>
       </c>
       <c r="B93" t="n">
-        <v>3495087395.220274</v>
+        <v>3495027477.243501</v>
+      </c>
+      <c r="C93" t="n">
+        <v>745952313.8827391</v>
+      </c>
+      <c r="D93" t="n">
+        <v>4386619422.117261</v>
       </c>
     </row>
     <row r="94">
@@ -3176,7 +5198,13 @@
         <v>47849</v>
       </c>
       <c r="B94" t="n">
-        <v>3499943306.861752</v>
+        <v>3499883023.873879</v>
+      </c>
+      <c r="C94" t="n">
+        <v>736435442.4871964</v>
+      </c>
+      <c r="D94" t="n">
+        <v>4396136293.512804</v>
       </c>
     </row>
     <row r="95">
@@ -3184,7 +5212,13 @@
         <v>47880</v>
       </c>
       <c r="B95" t="n">
-        <v>3504774093.454655</v>
+        <v>3504713447.609309</v>
+      </c>
+      <c r="C95" t="n">
+        <v>726967811.9657536</v>
+      </c>
+      <c r="D95" t="n">
+        <v>4405603924.034246</v>
       </c>
     </row>
     <row r="96">
@@ -3192,7 +5226,13 @@
         <v>47908</v>
       </c>
       <c r="B96" t="n">
-        <v>3509580141.009297</v>
+        <v>3509519134.422986</v>
+      </c>
+      <c r="C96" t="n">
+        <v>717548665.8109469</v>
+      </c>
+      <c r="D96" t="n">
+        <v>4415023070.189053</v>
       </c>
     </row>
     <row r="97">
@@ -3200,7 +5240,13 @@
         <v>47939</v>
       </c>
       <c r="B97" t="n">
-        <v>3514361825.75192</v>
+        <v>3514300460.505076</v>
+      </c>
+      <c r="C97" t="n">
+        <v>708177266.6900501</v>
+      </c>
+      <c r="D97" t="n">
+        <v>4424394469.30995</v>
       </c>
     </row>
     <row r="98">
@@ -3208,7 +5254,13 @@
         <v>47969</v>
       </c>
       <c r="B98" t="n">
-        <v>3519119514.468401</v>
+        <v>3519057792.606385</v>
+      </c>
+      <c r="C98" t="n">
+        <v>698852895.7714846</v>
+      </c>
+      <c r="D98" t="n">
+        <v>4433718840.228516</v>
       </c>
     </row>
     <row r="99">
@@ -3216,7 +5268,13 @@
         <v>48000</v>
       </c>
       <c r="B99" t="n">
-        <v>3523853564.8326</v>
+        <v>3523791488.366662</v>
+      </c>
+      <c r="C99" t="n">
+        <v>689574852.0813434</v>
+      </c>
+      <c r="D99" t="n">
+        <v>4442996883.918656</v>
       </c>
     </row>
     <row r="100">
@@ -3224,7 +5282,13 @@
         <v>48030</v>
       </c>
       <c r="B100" t="n">
-        <v>3528564325.720155</v>
+        <v>3528501896.628361</v>
+      </c>
+      <c r="C100" t="n">
+        <v>680342451.8884122</v>
+      </c>
+      <c r="D100" t="n">
+        <v>4452229284.111588</v>
       </c>
     </row>
     <row r="101">
@@ -3232,7 +5296,13 @@
         <v>48061</v>
       </c>
       <c r="B101" t="n">
-        <v>3533252137.508528</v>
+        <v>3533189357.736657</v>
+      </c>
+      <c r="C101" t="n">
+        <v>671155028.1161532</v>
+      </c>
+      <c r="D101" t="n">
+        <v>4461416707.883846</v>
       </c>
     </row>
     <row r="102">
@@ -3240,7 +5310,13 @@
         <v>48092</v>
       </c>
       <c r="B102" t="n">
-        <v>3537917332.364019</v>
+        <v>3537854203.826417</v>
+      </c>
+      <c r="C102" t="n">
+        <v>662011929.7802222</v>
+      </c>
+      <c r="D102" t="n">
+        <v>4470559806.219778</v>
       </c>
     </row>
     <row r="103">
@@ -3248,7 +5324,13 @@
         <v>48122</v>
       </c>
       <c r="B103" t="n">
-        <v>3542560234.516435</v>
+        <v>3542496759.096848</v>
+      </c>
+      <c r="C103" t="n">
+        <v>652912521.4501767</v>
+      </c>
+      <c r="D103" t="n">
+        <v>4479659214.549824</v>
       </c>
     </row>
     <row r="104">
@@ -3256,7 +5338,13 @@
         <v>48153</v>
       </c>
       <c r="B104" t="n">
-        <v>3547181160.522058</v>
+        <v>3547117340.07443</v>
+      </c>
+      <c r="C104" t="n">
+        <v>643856182.7341177</v>
+      </c>
+      <c r="D104" t="n">
+        <v>4488715553.265882</v>
       </c>
     </row>
     <row r="105">
@@ -3264,7 +5352,13 @@
         <v>48183</v>
       </c>
       <c r="B105" t="n">
-        <v>3551780419.515517</v>
+        <v>3551716255.864755</v>
+      </c>
+      <c r="C105" t="n">
+        <v>634842307.7850797</v>
+      </c>
+      <c r="D105" t="n">
+        <v>4497729428.21492</v>
       </c>
     </row>
     <row r="106">
@@ -3272,7 +5366,13 @@
         <v>48214</v>
       </c>
       <c r="B106" t="n">
-        <v>3556358313.451128</v>
+        <v>3556293808.393849</v>
+      </c>
+      <c r="C106" t="n">
+        <v>625870304.8280559</v>
+      </c>
+      <c r="D106" t="n">
+        <v>4506701431.171944</v>
       </c>
     </row>
     <row r="107">
@@ -3280,7 +5380,13 @@
         <v>48245</v>
       </c>
       <c r="B107" t="n">
-        <v>3560915137.334235</v>
+        <v>3560850292.63948</v>
+      </c>
+      <c r="C107" t="n">
+        <v>616939595.706619</v>
+      </c>
+      <c r="D107" t="n">
+        <v>4515632140.293381</v>
       </c>
     </row>
     <row r="108">
@@ -3288,7 +5394,13 @@
         <v>48274</v>
       </c>
       <c r="B108" t="n">
-        <v>3565451179.443057</v>
+        <v>3565385996.852983</v>
+      </c>
+      <c r="C108" t="n">
+        <v>608049615.4481521</v>
+      </c>
+      <c r="D108" t="n">
+        <v>4524522120.551847</v>
       </c>
     </row>
     <row r="109">
@@ -3296,7 +5408,13 @@
         <v>48305</v>
       </c>
       <c r="B109" t="n">
-        <v>3569966721.541511</v>
+        <v>3569901202.772062</v>
+      </c>
+      <c r="C109" t="n">
+        <v>599199811.8467586</v>
+      </c>
+      <c r="D109" t="n">
+        <v>4533371924.153241</v>
       </c>
     </row>
     <row r="110">
@@ -3304,7 +5422,13 @@
         <v>48335</v>
       </c>
       <c r="B110" t="n">
-        <v>3574462039.083457</v>
+        <v>3574396185.825002</v>
+      </c>
+      <c r="C110" t="n">
+        <v>590389645.0629959</v>
+      </c>
+      <c r="D110" t="n">
+        <v>4542182090.937004</v>
       </c>
     </row>
     <row r="111">
@@ -3312,7 +5436,13 @@
         <v>48366</v>
       </c>
       <c r="B111" t="n">
-        <v>3578937401.408781</v>
+        <v>3578871215.32674</v>
+      </c>
+      <c r="C111" t="n">
+        <v>581618587.239589</v>
+      </c>
+      <c r="D111" t="n">
+        <v>4550953148.760411</v>
       </c>
     </row>
     <row r="112">
@@ -3320,7 +5450,13 @@
         <v>48396</v>
       </c>
       <c r="B112" t="n">
-        <v>3583393071.93171</v>
+        <v>3583326554.667158</v>
+      </c>
+      <c r="C112" t="n">
+        <v>572886122.1323705</v>
+      </c>
+      <c r="D112" t="n">
+        <v>4559685613.86763</v>
       </c>
     </row>
     <row r="113">
@@ -3328,7 +5464,13 @@
         <v>48427</v>
       </c>
       <c r="B113" t="n">
-        <v>3587829308.321739</v>
+        <v>3587762461.491986</v>
+      </c>
+      <c r="C113" t="n">
+        <v>564191744.7557065</v>
+      </c>
+      <c r="D113" t="n">
+        <v>4568379991.244293</v>
       </c>
     </row>
     <row r="114">
@@ -3336,7 +5478,13 @@
         <v>48458</v>
       </c>
       <c r="B114" t="n">
-        <v>3592246362.677517</v>
+        <v>3592179187.876673</v>
+      </c>
+      <c r="C114" t="n">
+        <v>555534961.0417211</v>
+      </c>
+      <c r="D114" t="n">
+        <v>4577036774.958279</v>
       </c>
     </row>
     <row r="115">
@@ -3344,7 +5492,13 @@
         <v>48488</v>
       </c>
       <c r="B115" t="n">
-        <v>3596644481.694024</v>
+        <v>3596576980.493537</v>
+      </c>
+      <c r="C115" t="n">
+        <v>546915287.5126674</v>
+      </c>
+      <c r="D115" t="n">
+        <v>4585656448.487332</v>
       </c>
     </row>
     <row r="116">
@@ -3352,7 +5506,13 @@
         <v>48519</v>
       </c>
       <c r="B116" t="n">
-        <v>3601023906.82334</v>
+        <v>3600956080.772533</v>
+      </c>
+      <c r="C116" t="n">
+        <v>538332250.9658353</v>
+      </c>
+      <c r="D116" t="n">
+        <v>4594239485.034164</v>
       </c>
     </row>
     <row r="117">
@@ -3360,7 +5520,13 @@
         <v>48549</v>
       </c>
       <c r="B117" t="n">
-        <v>3605384874.429341</v>
+        <v>3605316725.055914</v>
+      </c>
+      <c r="C117" t="n">
+        <v>529785388.1704087</v>
+      </c>
+      <c r="D117" t="n">
+        <v>4602786347.829592</v>
       </c>
     </row>
     <row r="118">
@@ -3368,7 +5534,13 @@
         <v>48580</v>
       </c>
       <c r="B118" t="n">
-        <v>3609727615.936552</v>
+        <v>3609659144.747078</v>
+      </c>
+      <c r="C118" t="n">
+        <v>521274245.5757265</v>
+      </c>
+      <c r="D118" t="n">
+        <v>4611297490.424273</v>
       </c>
     </row>
     <row r="119">
@@ -3376,7 +5548,13 @@
         <v>48611</v>
       </c>
       <c r="B119" t="n">
-        <v>3614052357.973456</v>
+        <v>3613983566.453864</v>
+      </c>
+      <c r="C119" t="n">
+        <v>512798379.0304272</v>
+      </c>
+      <c r="D119" t="n">
+        <v>4619773356.969573</v>
       </c>
     </row>
     <row r="120">
@@ -3384,7 +5562,13 @@
         <v>48639</v>
       </c>
       <c r="B120" t="n">
-        <v>3618359322.510509</v>
+        <v>3618290212.12654</v>
+      </c>
+      <c r="C120" t="n">
+        <v>504357353.511982</v>
+      </c>
+      <c r="D120" t="n">
+        <v>4628214382.488018</v>
       </c>
     </row>
     <row r="121">
@@ -3392,7 +5576,13 @@
         <v>48670</v>
       </c>
       <c r="B121" t="n">
-        <v>3622648726.993077</v>
+        <v>3622579299.190737</v>
+      </c>
+      <c r="C121" t="n">
+        <v>495950742.8661566</v>
+      </c>
+      <c r="D121" t="n">
+        <v>4636620993.133843</v>
       </c>
     </row>
   </sheetData>
